--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>Current job</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>2021-01-11 12:39:56</t>
+  </si>
+  <si>
+    <t>2021-01-12 14:08:56</t>
+  </si>
+  <si>
+    <t>2021-01-12 14:08:47</t>
   </si>
 </sst>
 </file>
@@ -833,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
@@ -2280,6 +2286,20 @@
         <v>154</v>
       </c>
     </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="n">
+        <v>243</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Current job</t>
   </si>
@@ -485,6 +485,15 @@
   </si>
   <si>
     <t>2021-01-12 14:08:47</t>
+  </si>
+  <si>
+    <t>2021-02-22 15:15:53</t>
+  </si>
+  <si>
+    <t>2021-02-22 15:22:25</t>
+  </si>
+  <si>
+    <t>2021-02-22 16:11:10</t>
   </si>
 </sst>
 </file>
@@ -839,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
@@ -2300,6 +2309,20 @@
         <v>156</v>
       </c>
     </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="n">
+        <v>4353</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Current job</t>
   </si>
@@ -494,6 +494,30 @@
   </si>
   <si>
     <t>2021-02-22 16:11:10</t>
+  </si>
+  <si>
+    <t>2021-03-04 14:24:48</t>
+  </si>
+  <si>
+    <t>2021-03-04 14:26:50</t>
+  </si>
+  <si>
+    <t>2021-03-04 14:26:57</t>
+  </si>
+  <si>
+    <t>2021-03-12 14:34:28</t>
+  </si>
+  <si>
+    <t>2021-03-12 14:34:33</t>
+  </si>
+  <si>
+    <t>2021-03-12 14:35:05</t>
+  </si>
+  <si>
+    <t>2021-03-12 16:26:02</t>
+  </si>
+  <si>
+    <t>2021-03-12 16:26:07</t>
   </si>
 </sst>
 </file>
@@ -848,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
@@ -2323,6 +2347,146 @@
         <v>159</v>
       </c>
     </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="n">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="n">
+        <v>9</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="n">
+        <v>6</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="n">
+        <v>4</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>Current job</t>
   </si>
@@ -518,6 +518,33 @@
   </si>
   <si>
     <t>2021-03-12 16:26:07</t>
+  </si>
+  <si>
+    <t>2021-03-15 14:18:21</t>
+  </si>
+  <si>
+    <t>2021-03-15 14:18:29</t>
+  </si>
+  <si>
+    <t>2021-03-15 14:40:23</t>
+  </si>
+  <si>
+    <t>2021-03-15 14:40:28</t>
+  </si>
+  <si>
+    <t>2021-03-22 18:09:41</t>
+  </si>
+  <si>
+    <t>2021-03-22 18:09:44</t>
+  </si>
+  <si>
+    <t>2021-03-22 18:09:46</t>
+  </si>
+  <si>
+    <t>2021-03-22 18:13:05</t>
+  </si>
+  <si>
+    <t>2021-03-22 18:13:08</t>
   </si>
 </sst>
 </file>
@@ -872,10 +899,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -2220,6 +2247,8 @@
       <c r="D61" t="s">
         <v>150</v>
       </c>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="n">
@@ -2234,6 +2263,8 @@
       <c r="D62" t="s">
         <v>152</v>
       </c>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="n">
@@ -2248,6 +2279,8 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="n">
@@ -2262,6 +2295,8 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="n">
@@ -2276,6 +2311,8 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="n">
@@ -2290,6 +2327,8 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="n">
@@ -2304,6 +2343,8 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="n">
@@ -2318,6 +2359,8 @@
       <c r="D68" t="s">
         <v>154</v>
       </c>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="n">
@@ -2332,6 +2375,14 @@
       <c r="D69" t="s">
         <v>156</v>
       </c>
+      <c r="E69" s="2">
+        <f>C69-B69</f>
+        <v/>
+      </c>
+      <c r="F69" s="2">
+        <f>D69-B69</f>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="n">
@@ -2346,6 +2397,14 @@
       <c r="D70" t="s">
         <v>159</v>
       </c>
+      <c r="E70" s="2">
+        <f>C70-B70</f>
+        <v/>
+      </c>
+      <c r="F70" s="2">
+        <f>D70-B70</f>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="n">
@@ -2360,6 +2419,14 @@
       <c r="D71" t="s">
         <v>162</v>
       </c>
+      <c r="E71" s="2">
+        <f>C71-B71</f>
+        <v/>
+      </c>
+      <c r="F71" s="2">
+        <f>D71-B71</f>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="n">
@@ -2374,6 +2441,8 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="n">
@@ -2388,6 +2457,8 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="n">
@@ -2402,6 +2473,8 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="n"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="n">
@@ -2416,6 +2489,8 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="n">
@@ -2430,6 +2505,8 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="n">
@@ -2443,6 +2520,14 @@
       </c>
       <c r="D77" t="s">
         <v>165</v>
+      </c>
+      <c r="E77" s="2">
+        <f>C77-B77</f>
+        <v/>
+      </c>
+      <c r="F77" s="2">
+        <f>D77-B77</f>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2458,6 +2543,8 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="n">
@@ -2472,6 +2559,8 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="n">
@@ -2485,6 +2574,136 @@
       </c>
       <c r="D80" t="s">
         <v>167</v>
+      </c>
+      <c r="E80" s="2">
+        <f>C80-B80</f>
+        <v/>
+      </c>
+      <c r="F80" s="2">
+        <f>D80-B80</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="n">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" s="2">
+        <f>C82-B82</f>
+        <v/>
+      </c>
+      <c r="F82" s="2">
+        <f>D82-B82</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="n">
+        <v>54</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="n">
+        <v>66</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="n">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="n">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>Current job</t>
   </si>
@@ -545,6 +545,21 @@
   </si>
   <si>
     <t>2021-03-22 18:13:08</t>
+  </si>
+  <si>
+    <t>2021-03-29 14:24:51</t>
+  </si>
+  <si>
+    <t>2021-03-29 14:28:42</t>
+  </si>
+  <si>
+    <t>2021-03-29 14:28:57</t>
+  </si>
+  <si>
+    <t>2021-03-29 14:31:28</t>
+  </si>
+  <si>
+    <t>2021-03-29 14:32:43</t>
   </si>
 </sst>
 </file>
@@ -899,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
@@ -2706,6 +2721,146 @@
         <v>176</v>
       </c>
     </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="n">
+        <v>43</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="n">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="n">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="n">
+        <v>12</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="n">
+        <v>21</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="n">
+        <v>59</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="n">
+        <v>9</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="n">
+        <v>13</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="n">
+        <v>42</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="n">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot Framework\Mykiot_Git\Mykiot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="187">
   <si>
     <t>Current job</t>
   </si>
@@ -463,30 +468,12 @@
     <t>2021-01-08 14:40:13</t>
   </si>
   <si>
-    <t>2021-01-08 17:39:52</t>
-  </si>
-  <si>
-    <t>2021-01-08 17:39:33</t>
-  </si>
-  <si>
-    <t>2021-01-08 18:10:00</t>
-  </si>
-  <si>
-    <t>2021-01-08 18:09:41</t>
-  </si>
-  <si>
     <t>2021-01-11 12:39:53</t>
   </si>
   <si>
     <t>2021-01-11 12:39:56</t>
   </si>
   <si>
-    <t>2021-01-12 14:08:56</t>
-  </si>
-  <si>
-    <t>2021-01-12 14:08:47</t>
-  </si>
-  <si>
     <t>2021-02-22 15:15:53</t>
   </si>
   <si>
@@ -560,39 +547,71 @@
   </si>
   <si>
     <t>2021-03-29 14:32:43</t>
+  </si>
+  <si>
+    <t>2021-04-05 18:19:50</t>
+  </si>
+  <si>
+    <t>2021-04-05 18:19:53</t>
+  </si>
+  <si>
+    <t>2021-04-12 15:42:54</t>
+  </si>
+  <si>
+    <t>2021-04-12 15:43:00</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:07:29</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:07:38</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:08:31</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:08:37</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:09:33</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:09:39</t>
+  </si>
+  <si>
+    <t>2021-04-12 16:09:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,19 +626,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -909,27 +937,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.140625"/>
-    <col customWidth="1" max="2" min="2" width="37.140625"/>
-    <col customWidth="1" max="3" min="3" width="40.85546875"/>
-    <col customWidth="1" max="4" min="4" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" width="37.85546875"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +967,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -957,24 +981,24 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f>C2-B2</f>
-        <v/>
+        <f t="shared" ref="E2:E33" si="0">C2-B2</f>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F2" s="2">
-        <f>D2-B2</f>
-        <v/>
+        <f t="shared" ref="F2:F33" si="1">D2-B2</f>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(E2:E60)</f>
-        <v/>
+        <v>5.8498116783793793E-4</v>
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(F2:F60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="n">
+        <v>8.451035781467523E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -987,16 +1011,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <f>C3-B3</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6203703853534535E-4</v>
       </c>
       <c r="F3" s="2">
-        <f>D3-B3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="n">
+        <f t="shared" si="1"/>
+        <v>1.6203703853534535E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1009,16 +1033,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>C4-B4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.7152777804294601E-3</v>
       </c>
       <c r="F4" s="2">
-        <f>D4-B4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="n">
+        <f t="shared" si="1"/>
+        <v>3.7268518499331549E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1031,16 +1055,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <f>C5-B5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F5" s="2">
-        <f>D5-B5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1053,16 +1077,16 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <f>C6-B6</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.9861110862111673E-4</v>
       </c>
       <c r="F6" s="2">
-        <f>D6-B6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="n">
+        <f t="shared" si="1"/>
+        <v>4.5717592583969235E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1075,16 +1099,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <f>C7-B7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6087963012978435E-3</v>
       </c>
       <c r="F7" s="2">
-        <f>D7-B7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="n">
+        <f t="shared" si="1"/>
+        <v>1.6087963012978435E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1097,16 +1121,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <f>C8-B8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F8" s="2">
-        <f>D8-B8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="n">
+        <f t="shared" si="1"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1119,16 +1143,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <f>C9-B9</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F9" s="2">
-        <f>D9-B9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1673</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1141,16 +1165,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <f>C10-B10</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.8611110833007842E-4</v>
       </c>
       <c r="F10" s="2">
-        <f>D10-B10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="n">
+        <f t="shared" si="1"/>
+        <v>4.9768518510973081E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1163,16 +1187,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="2">
-        <f>C11-B11</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F11" s="2">
-        <f>D11-B11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="n">
+        <f t="shared" si="1"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1185,16 +1209,16 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <f>C12-B12</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F12" s="2">
-        <f>D12-B12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="n">
+        <f t="shared" si="1"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1207,16 +1231,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="2">
-        <f>C13-B13</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F13" s="2">
-        <f>D13-B13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1229,16 +1253,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="2">
-        <f>C14-B14</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F14" s="2">
-        <f>D14-B14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1666666220407933E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1251,16 +1275,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <f>C15-B15</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F15" s="2">
-        <f>D15-B15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="n">
+        <f t="shared" si="1"/>
+        <v>3.0092593078734353E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1273,16 +1297,16 @@
         <v>39</v>
       </c>
       <c r="E16" s="2">
-        <f>C16-B16</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F16" s="2">
-        <f>D16-B16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="n">
+        <f t="shared" si="1"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1295,16 +1319,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="2">
-        <f>C17-B17</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F17" s="2">
-        <f>D17-B17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1666666220407933E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1317,16 +1341,16 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <f>C18-B18</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.787037662230432E-5</v>
       </c>
       <c r="F18" s="2">
-        <f>D18-B18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="n">
+        <f t="shared" si="1"/>
+        <v>4.7453703882638365E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1339,16 +1363,16 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <f>C19-B19</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F19" s="2">
-        <f>D19-B19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="n">
+        <f t="shared" si="1"/>
+        <v>3.9351851592073217E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1361,16 +1385,16 @@
         <v>51</v>
       </c>
       <c r="E20" s="2">
-        <f>C20-B20</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.1574076779652387E-5</v>
       </c>
       <c r="F20" s="2">
-        <f>D20-B20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="n">
+        <f t="shared" si="1"/>
+        <v>2.314814628334716E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1383,16 +1407,16 @@
         <v>54</v>
       </c>
       <c r="E21" s="2">
-        <f>C21-B21</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F21" s="2">
-        <f>D21-B21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="n">
+        <f t="shared" si="1"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1405,16 +1429,16 @@
         <v>56</v>
       </c>
       <c r="E22" s="2">
-        <f>C22-B22</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F22" s="2">
-        <f>D22-B22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="n">
+        <f t="shared" si="1"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1427,16 +1451,16 @@
         <v>59</v>
       </c>
       <c r="E23" s="2">
-        <f>C23-B23</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F23" s="2">
-        <f>D23-B23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="n">
+        <f t="shared" si="1"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1449,16 +1473,16 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
-        <f>C24-B24</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.3935185133013874E-3</v>
       </c>
       <c r="F24" s="2">
-        <f>D24-B24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="n">
+        <f t="shared" si="1"/>
+        <v>7.6388888846850023E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1471,16 +1495,16 @@
         <v>64</v>
       </c>
       <c r="E25" s="2">
-        <f>C25-B25</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1990740788169205E-4</v>
       </c>
       <c r="F25" s="2">
-        <f>D25-B25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1990740788169205E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1493,16 +1517,16 @@
         <v>66</v>
       </c>
       <c r="E26" s="2">
-        <f>C26-B26</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.546296309446916E-4</v>
       </c>
       <c r="F26" s="2">
-        <f>D26-B26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="n">
+        <f t="shared" si="1"/>
+        <v>2.546296309446916E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1515,16 +1539,16 @@
         <v>67</v>
       </c>
       <c r="E27" s="2">
-        <f>C27-B27</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f>D27-B27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="n">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1537,16 +1561,16 @@
         <v>70</v>
       </c>
       <c r="E28" s="2">
-        <f>C28-B28</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.1435185194131918E-3</v>
       </c>
       <c r="F28" s="2">
-        <f>D28-B28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1550925961928442E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1559,16 +1583,16 @@
         <v>72</v>
       </c>
       <c r="E29" s="2">
-        <f>C29-B29</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.4398147767642513E-4</v>
       </c>
       <c r="F29" s="2">
-        <f>D29-B29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="n">
+        <f t="shared" si="1"/>
+        <v>5.4398147767642513E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1581,16 +1605,16 @@
         <v>74</v>
       </c>
       <c r="E30" s="2">
-        <f>C30-B30</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F30" s="2">
-        <f>D30-B30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1603,16 +1627,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="2">
-        <f>C31-B31</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.7962963152676821E-4</v>
       </c>
       <c r="F31" s="2">
-        <f>D31-B31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="n">
+        <f t="shared" si="1"/>
+        <v>8.9120370103046298E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1625,16 +1649,16 @@
         <v>79</v>
       </c>
       <c r="E32" s="2">
-        <f>C32-B32</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.2337962946039625E-3</v>
       </c>
       <c r="F32" s="2">
-        <f>D32-B32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="n">
+        <f t="shared" si="1"/>
+        <v>2.2337962946039625E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1647,16 +1671,16 @@
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <f>C33-B33</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1990740788169205E-3</v>
       </c>
       <c r="F33" s="2">
-        <f>D33-B33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1990740788169205E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1669,16 +1693,16 @@
         <v>84</v>
       </c>
       <c r="E34" s="2">
-        <f>C34-B34</f>
-        <v/>
+        <f t="shared" ref="E34:E60" si="2">C34-B34</f>
+        <v>2.1064814864075743E-3</v>
       </c>
       <c r="F34" s="2">
-        <f>D34-B34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="n">
+        <f t="shared" ref="F34:F60" si="3">D34-B34</f>
+        <v>6.3888888907968067E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1691,16 +1715,16 @@
         <v>86</v>
       </c>
       <c r="E35" s="2">
-        <f>C35-B35</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.0092592351138592E-4</v>
       </c>
       <c r="F35" s="2">
-        <f>D35-B35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="n">
+        <f t="shared" si="3"/>
+        <v>3.0092592351138592E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1713,16 +1737,16 @@
         <v>88</v>
       </c>
       <c r="E36" s="2">
-        <f>C36-B36</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.3564814657438546E-4</v>
       </c>
       <c r="F36" s="2">
-        <f>D36-B36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="n">
+        <f t="shared" si="3"/>
+        <v>3.3564814657438546E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1735,16 +1759,16 @@
         <v>91</v>
       </c>
       <c r="E37" s="2">
-        <f>C37-B37</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F37" s="2">
-        <f>D37-B37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1757,16 +1781,16 @@
         <v>93</v>
       </c>
       <c r="E38" s="2">
-        <f>C38-B38</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.125000002910383E-4</v>
       </c>
       <c r="F38" s="2">
-        <f>D38-B38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="n">
+        <f t="shared" si="3"/>
+        <v>3.125000002910383E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1779,16 +1803,16 @@
         <v>96</v>
       </c>
       <c r="E39" s="2">
-        <f>C39-B39</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.3240740817273036E-4</v>
       </c>
       <c r="F39" s="2">
-        <f>D39-B39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="n">
+        <f t="shared" si="3"/>
+        <v>2.1412037021946162E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1801,16 +1825,16 @@
         <v>99</v>
       </c>
       <c r="E40" s="2">
-        <f>C40-B40</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F40" s="2">
-        <f>D40-B40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1823,16 +1847,16 @@
         <v>102</v>
       </c>
       <c r="E41" s="2">
-        <f>C41-B41</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2.78935184906004E-3</v>
       </c>
       <c r="F41" s="2">
-        <f>D41-B41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="n">
+        <f t="shared" si="3"/>
+        <v>2.9629629643750377E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1845,16 +1869,16 @@
         <v>104</v>
       </c>
       <c r="E42" s="2">
-        <f>C42-B42</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F42" s="2">
-        <f>D42-B42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1867,16 +1891,16 @@
         <v>107</v>
       </c>
       <c r="E43" s="2">
-        <f>C43-B43</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>7.4074073927477002E-4</v>
       </c>
       <c r="F43" s="2">
-        <f>D43-B43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="n">
+        <f t="shared" si="3"/>
+        <v>1.0763888931251131E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1889,16 +1913,16 @@
         <v>109</v>
       </c>
       <c r="E44" s="2">
-        <f>C44-B44</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F44" s="2">
-        <f>D44-B44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1911,16 +1935,16 @@
         <v>111</v>
       </c>
       <c r="E45" s="2">
-        <f>C45-B45</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F45" s="2">
-        <f>D45-B45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1933,16 +1957,16 @@
         <v>113</v>
       </c>
       <c r="E46" s="2">
-        <f>C46-B46</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F46" s="2">
-        <f>D46-B46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1955,16 +1979,16 @@
         <v>116</v>
       </c>
       <c r="E47" s="2">
-        <f>C47-B47</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F47" s="2">
-        <f>D47-B47</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1977,16 +2001,16 @@
         <v>118</v>
       </c>
       <c r="E48" s="2">
-        <f>C48-B48</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F48" s="2">
-        <f>D48-B48</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1999,16 +2023,16 @@
         <v>120</v>
       </c>
       <c r="E49" s="2">
-        <f>C49-B49</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722222335403785E-4</v>
       </c>
       <c r="F49" s="2">
-        <f>D49-B49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722222335403785E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2021,16 +2045,16 @@
         <v>123</v>
       </c>
       <c r="E50" s="2">
-        <f>C50-B50</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.273148154723458E-4</v>
       </c>
       <c r="F50" s="2">
-        <f>D50-B50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="n">
+        <f t="shared" si="3"/>
+        <v>1.3888888497604057E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2043,16 +2067,16 @@
         <v>125</v>
       </c>
       <c r="E51" s="2">
-        <f>C51-B51</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F51" s="2">
-        <f>D51-B51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2065,16 +2089,16 @@
         <v>128</v>
       </c>
       <c r="E52" s="2">
-        <f>C52-B52</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F52" s="2">
-        <f>D52-B52</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2087,16 +2111,16 @@
         <v>130</v>
       </c>
       <c r="E53" s="2">
-        <f>C53-B53</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F53" s="2">
-        <f>D53-B53</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>334</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2109,16 +2133,16 @@
         <v>133</v>
       </c>
       <c r="E54" s="2">
-        <f>C54-B54</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>8.101852290565148E-5</v>
       </c>
       <c r="F54" s="2">
-        <f>D54-B54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="n">
+        <f t="shared" si="3"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2131,16 +2155,16 @@
         <v>136</v>
       </c>
       <c r="E55" s="2">
-        <f>C55-B55</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.398148157633841E-4</v>
       </c>
       <c r="F55" s="2">
-        <f>D55-B55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="n">
+        <f t="shared" si="3"/>
+        <v>4.5138888526707888E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2153,16 +2177,16 @@
         <v>138</v>
       </c>
       <c r="E56" s="2">
-        <f>C56-B56</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.787037662230432E-5</v>
       </c>
       <c r="F56" s="2">
-        <f>D56-B56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="n">
+        <f t="shared" si="3"/>
+        <v>5.787037662230432E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2175,16 +2199,16 @@
         <v>141</v>
       </c>
       <c r="E57" s="2">
-        <f>C57-B57</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.1689814855344594E-3</v>
       </c>
       <c r="F57" s="2">
-        <f>D57-B57</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="n">
+        <f t="shared" si="3"/>
+        <v>1.527777778392192E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>186</v>
       </c>
       <c r="B58" t="s">
@@ -2197,16 +2221,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="2">
-        <f>C58-B58</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F58" s="2">
-        <f>D58-B58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>52</v>
       </c>
       <c r="B59" t="s">
@@ -2219,16 +2243,16 @@
         <v>146</v>
       </c>
       <c r="E59" s="2">
-        <f>C59-B59</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>9.2592592409346253E-4</v>
       </c>
       <c r="F59" s="2">
-        <f>D59-B59</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="n">
+        <f t="shared" si="3"/>
+        <v>1.5509259246755391E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>93</v>
       </c>
       <c r="B60" t="s">
@@ -2241,628 +2265,448 @@
         <v>148</v>
       </c>
       <c r="E60" s="2">
-        <f>C60-B60</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.3888888497604057E-4</v>
       </c>
       <c r="F60" s="2">
-        <f>D60-B60</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="n">
-        <v>160</v>
-      </c>
-      <c r="B61" t="s">
+        <f t="shared" si="3"/>
+        <v>1.3888888497604057E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>78866</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>102105</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>138164</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>14189</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7665</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
         <v>149</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C66" t="s">
         <v>150</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D66" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="n">
-        <v>93</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="4">C66-B66</f>
+        <v>3.4722223062999547E-5</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ref="F66" si="5">D66-B66</f>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4353</v>
+      </c>
+      <c r="B67" t="s">
         <v>151</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>152</v>
       </c>
-      <c r="D62" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="n">
-        <v>78866</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="2">
+        <f>C67-B67</f>
+        <v>4.537037035333924E-3</v>
+      </c>
+      <c r="F67" s="2">
+        <f>D67-B67</f>
+        <v>3.8391203699575271E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="2">
+        <f>C68-B68</f>
+        <v>1.4120370396994986E-3</v>
+      </c>
+      <c r="F68" s="2">
+        <f>D68-B68</f>
+        <v>1.4930555553291924E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>0</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="n">
-        <v>102105</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="n">
-        <v>138164</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="n">
-        <v>14189</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="n">
-        <v>7665</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="n">
-        <v>83</v>
-      </c>
-      <c r="B68" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="2" t="n"/>
-      <c r="F68" s="2" t="n"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="n">
-        <v>243</v>
-      </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E69" s="2">
         <f>C69-B69</f>
-        <v/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F69" s="2">
         <f>D69-B69</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="n">
-        <v>4353</v>
+        <v>4.2824073898373172E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E70" s="2">
         <f>C70-B70</f>
-        <v/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F70" s="2">
         <f>D70-B70</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="n">
-        <v>30</v>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="2">
         <f>C71-B71</f>
-        <v/>
+        <v>9.2592592409346253E-5</v>
       </c>
       <c r="F71" s="2">
         <f>D71-B71</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="n">
-        <v>9</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2" t="n"/>
-      <c r="F72" s="2" t="n"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="n">
-        <v>9</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="n">
-        <v>6</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2" t="n"/>
-      <c r="F74" s="2" t="n"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="n">
-        <v>4</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="n">
-        <v>0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="n">
-        <v>0</v>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" ref="E72:E81" si="6">C72-B72</f>
+        <v>5.7870369346346706E-5</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" ref="F72:F81" si="7">D72-B72</f>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="7"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="7"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6736111103673466E-3</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="7"/>
+        <v>2.8472222256823443E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="6"/>
+        <v>8.6805555474711582E-4</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="7"/>
+        <v>8.6805555474711582E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E77" s="2">
-        <f>C77-B77</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F77" s="2">
-        <f>D77-B77</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="n">
-        <v>6</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="n">
-        <v>4</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="n">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>63</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0416666918899864E-4</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0416666918899864E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E80" s="2">
-        <f>C80-B80</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F80" s="2">
-        <f>D80-B80</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="n">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" t="s">
-        <v>169</v>
-      </c>
-      <c r="E82" s="2">
-        <f>C82-B82</f>
-        <v/>
-      </c>
-      <c r="F82" s="2">
-        <f>D82-B82</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="n">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="n">
-        <v>54</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="n">
-        <v>66</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="n">
-        <v>20</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="n">
-        <v>18</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="n">
-        <v>43</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="n">
-        <v>46</v>
-      </c>
-      <c r="B90" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="n">
-        <v>66</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" t="s">
-        <v>181</v>
-      </c>
-      <c r="D91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="n">
-        <v>12</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="n">
-        <v>21</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="n">
-        <v>59</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="n">
-        <v>9</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="n">
-        <v>13</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="n">
-        <v>42</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="n">
-        <v>99</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="7"/>
+        <v>8.101852290565148E-5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot Framework\Mykiot_Git\Mykiot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>Current job</t>
   </si>
@@ -580,38 +575,54 @@
   </si>
   <si>
     <t>2021-04-12 16:09:40</t>
+  </si>
+  <si>
+    <t>2021-04-26 16:41:42</t>
+  </si>
+  <si>
+    <t>2021-04-26 16:43:16</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:39:00</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:39:04</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:47:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,28 +637,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -937,23 +939,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="15.140625"/>
+    <col customWidth="1" max="2" min="2" width="37.140625"/>
+    <col customWidth="1" max="3" min="3" width="40.85546875"/>
+    <col customWidth="1" max="4" min="4" width="34.85546875"/>
+    <col customWidth="1" max="5" min="5" width="37.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.25" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,8 +973,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -981,24 +987,24 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="0">C2-B2</f>
-        <v>5.7870369346346706E-5</v>
+        <f>C2-B2</f>
+        <v/>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F33" si="1">D2-B2</f>
-        <v>5.7870369346346706E-5</v>
+        <f>D2-B2</f>
+        <v/>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(E2:E60)</f>
-        <v>5.8498116783793793E-4</v>
+        <v/>
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(F2:F60)</f>
-        <v>8.451035781467523E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1011,16 +1017,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6203703853534535E-4</v>
+        <f>C3-B3</f>
+        <v/>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6203703853534535E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <f>D3-B3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="n">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1033,16 +1039,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7152777804294601E-3</v>
+        <f>C4-B4</f>
+        <v/>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>3.7268518499331549E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <f>D4-B4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="n">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1055,16 +1061,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C5-B5</f>
+        <v/>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <f>D5-B5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="n">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1077,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9861110862111673E-4</v>
+        <f>C6-B6</f>
+        <v/>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5717592583969235E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <f>D6-B6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="n">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1099,16 +1105,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6087963012978435E-3</v>
+        <f>C7-B7</f>
+        <v/>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6087963012978435E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <f>D7-B7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="n">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1121,16 +1127,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C8-B8</f>
+        <v/>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1018515629693866E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <f>D8-B8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="n">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1143,16 +1149,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C9-B9</f>
+        <v/>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <f>D9-B9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="n">
         <v>1673</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1165,16 +1171,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8611110833007842E-4</v>
+        <f>C10-B10</f>
+        <v/>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>4.9768518510973081E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <f>D10-B10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="n">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1187,16 +1193,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C11-B11</f>
+        <v/>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <f>D11-B11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="n">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1209,16 +1215,16 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C12-B12</f>
+        <v/>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6296292566694319E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <f>D12-B12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1231,16 +1237,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C13-B13</f>
+        <v/>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <f>D13-B13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="n">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1253,16 +1259,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C14-B14</f>
+        <v/>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1666666220407933E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <f>D14-B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1275,16 +1281,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296299842651933E-5</v>
+        <f>C15-B15</f>
+        <v/>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0092593078734353E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <f>D15-B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="n">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1297,16 +1303,16 @@
         <v>39</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296299842651933E-5</v>
+        <f>C16-B16</f>
+        <v/>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <f>D16-B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="n">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1319,16 +1325,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C17-B17</f>
+        <v/>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1666666220407933E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <f>D17-B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="n">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1341,16 +1347,16 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.787037662230432E-5</v>
+        <f>C18-B18</f>
+        <v/>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7453703882638365E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <f>D18-B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="n">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1363,16 +1369,16 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C19-B19</f>
+        <v/>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>3.9351851592073217E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <f>D19-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="n">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1385,16 +1391,16 @@
         <v>51</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1574076779652387E-5</v>
+        <f>C20-B20</f>
+        <v/>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>2.314814628334716E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <f>D20-B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1407,16 +1413,16 @@
         <v>54</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C21-B21</f>
+        <v/>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <f>D21-B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="n">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1429,16 +1435,16 @@
         <v>56</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C22-B22</f>
+        <v/>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <f>D22-B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1451,16 +1457,16 @@
         <v>59</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C23-B23</f>
+        <v/>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <f>D23-B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="n">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1473,16 +1479,16 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3935185133013874E-3</v>
+        <f>C24-B24</f>
+        <v/>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6388888846850023E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <f>D24-B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="n">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1495,16 +1501,16 @@
         <v>64</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1990740788169205E-4</v>
+        <f>C25-B25</f>
+        <v/>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1990740788169205E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <f>D25-B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="n">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1517,16 +1523,16 @@
         <v>66</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>2.546296309446916E-4</v>
+        <f>C26-B26</f>
+        <v/>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>2.546296309446916E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <f>D26-B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="n">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1539,16 +1545,16 @@
         <v>67</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C27-B27</f>
+        <v/>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <f>D27-B27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="n">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1561,16 +1567,16 @@
         <v>70</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1435185194131918E-3</v>
+        <f>C28-B28</f>
+        <v/>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1550925961928442E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+        <f>D28-B28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="n">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1583,16 +1589,16 @@
         <v>72</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4398147767642513E-4</v>
+        <f>C29-B29</f>
+        <v/>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4398147767642513E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <f>D29-B29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="n">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1605,16 +1611,16 @@
         <v>74</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C30-B30</f>
+        <v/>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <f>D30-B30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1627,16 +1633,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>8.7962963152676821E-4</v>
+        <f>C31-B31</f>
+        <v/>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
-        <v>8.9120370103046298E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <f>D31-B31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="n">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1649,16 +1655,16 @@
         <v>79</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2337962946039625E-3</v>
+        <f>C32-B32</f>
+        <v/>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2337962946039625E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <f>D32-B32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="n">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1671,16 +1677,16 @@
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1990740788169205E-3</v>
+        <f>C33-B33</f>
+        <v/>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1990740788169205E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <f>D33-B33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1693,16 +1699,16 @@
         <v>84</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E60" si="2">C34-B34</f>
-        <v>2.1064814864075743E-3</v>
+        <f>C34-B34</f>
+        <v/>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F60" si="3">D34-B34</f>
-        <v>6.3888888907968067E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <f>D34-B34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="n">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1715,16 +1721,16 @@
         <v>86</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0092592351138592E-4</v>
+        <f>C35-B35</f>
+        <v/>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0092592351138592E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <f>D35-B35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="n">
         <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1737,16 +1743,16 @@
         <v>88</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3564814657438546E-4</v>
+        <f>C36-B36</f>
+        <v/>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
-        <v>3.3564814657438546E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <f>D36-B36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="n">
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1759,16 +1765,16 @@
         <v>91</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C37-B37</f>
+        <v/>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+        <f>D37-B37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="n">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1781,16 +1787,16 @@
         <v>93</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="2"/>
-        <v>3.125000002910383E-4</v>
+        <f>C38-B38</f>
+        <v/>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
-        <v>3.125000002910383E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <f>D38-B38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="n">
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1803,16 +1809,16 @@
         <v>96</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3240740817273036E-4</v>
+        <f>C39-B39</f>
+        <v/>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1412037021946162E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <f>D39-B39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1825,16 +1831,16 @@
         <v>99</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C40-B40</f>
+        <v/>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <f>D40-B40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="n">
         <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1847,16 +1853,16 @@
         <v>102</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="2"/>
-        <v>2.78935184906004E-3</v>
+        <f>C41-B41</f>
+        <v/>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9629629643750377E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <f>D41-B41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="n">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1869,16 +1875,16 @@
         <v>104</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C42-B42</f>
+        <v/>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+        <f>D42-B42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="n">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1891,16 +1897,16 @@
         <v>107</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4074073927477002E-4</v>
+        <f>C43-B43</f>
+        <v/>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0763888931251131E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <f>D43-B43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="n">
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1913,16 +1919,16 @@
         <v>109</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C44-B44</f>
+        <v/>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <f>D44-B44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="n">
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1935,16 +1941,16 @@
         <v>111</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C45-B45</f>
+        <v/>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+        <f>D45-B45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="n">
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1957,16 +1963,16 @@
         <v>113</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="2"/>
-        <v>4.6296299842651933E-5</v>
+        <f>C46-B46</f>
+        <v/>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+        <f>D46-B46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="n">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1979,16 +1985,16 @@
         <v>116</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C47-B47</f>
+        <v/>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+        <f>D47-B47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="n">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2001,16 +2007,16 @@
         <v>118</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C48-B48</f>
+        <v/>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+        <f>D48-B48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="n">
         <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2023,16 +2029,16 @@
         <v>120</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722222335403785E-4</v>
+        <f>C49-B49</f>
+        <v/>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722222335403785E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <f>D49-B49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="n">
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2045,16 +2051,16 @@
         <v>123</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="2"/>
-        <v>1.273148154723458E-4</v>
+        <f>C50-B50</f>
+        <v/>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3888888497604057E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <f>D50-B50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="n">
         <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2067,16 +2073,16 @@
         <v>125</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="2"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C51-B51</f>
+        <v/>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296292566694319E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <f>D51-B51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="n">
         <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2089,16 +2095,16 @@
         <v>128</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C52-B52</f>
+        <v/>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <f>D52-B52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="n">
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2111,16 +2117,16 @@
         <v>130</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C53-B53</f>
+        <v/>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <f>D53-B53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="n">
         <v>334</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2133,16 +2139,16 @@
         <v>133</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="2"/>
-        <v>8.101852290565148E-5</v>
+        <f>C54-B54</f>
+        <v/>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="3"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+        <f>D54-B54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="n">
         <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2155,16 +2161,16 @@
         <v>136</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="2"/>
-        <v>4.398148157633841E-4</v>
+        <f>C55-B55</f>
+        <v/>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>4.5138888526707888E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <f>D55-B55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="n">
         <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2177,16 +2183,16 @@
         <v>138</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="2"/>
-        <v>5.787037662230432E-5</v>
+        <f>C56-B56</f>
+        <v/>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="3"/>
-        <v>5.787037662230432E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+        <f>D56-B56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="n">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2199,16 +2205,16 @@
         <v>141</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1689814855344594E-3</v>
+        <f>C57-B57</f>
+        <v/>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="3"/>
-        <v>1.527777778392192E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+        <f>D57-B57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="n">
         <v>186</v>
       </c>
       <c r="B58" t="s">
@@ -2221,16 +2227,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C58-B58</f>
+        <v/>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+        <f>D58-B58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="n">
         <v>52</v>
       </c>
       <c r="B59" t="s">
@@ -2243,16 +2249,16 @@
         <v>146</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="2"/>
-        <v>9.2592592409346253E-4</v>
+        <f>C59-B59</f>
+        <v/>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5509259246755391E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+        <f>D59-B59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="n">
         <v>93</v>
       </c>
       <c r="B60" t="s">
@@ -2265,96 +2271,96 @@
         <v>148</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3888888497604057E-4</v>
+        <f>C60-B60</f>
+        <v/>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3888888497604057E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+        <f>D60-B60</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="n">
         <v>78866</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="n">
         <v>102105</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="n">
         <v>138164</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="n">
         <v>14189</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="n">
         <v>7665</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="n">
         <v>83</v>
       </c>
       <c r="B66" t="s">
@@ -2367,16 +2373,16 @@
         <v>150</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66" si="4">C66-B66</f>
-        <v>3.4722223062999547E-5</v>
+        <f>C66-B66</f>
+        <v/>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66" si="5">D66-B66</f>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+        <f>D66-B66</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="n">
         <v>4353</v>
       </c>
       <c r="B67" t="s">
@@ -2390,15 +2396,15 @@
       </c>
       <c r="E67" s="2">
         <f>C67-B67</f>
-        <v>4.537037035333924E-3</v>
+        <v/>
       </c>
       <c r="F67" s="2">
         <f>D67-B67</f>
-        <v>3.8391203699575271E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="n">
         <v>30</v>
       </c>
       <c r="B68" t="s">
@@ -2412,15 +2418,15 @@
       </c>
       <c r="E68" s="2">
         <f>C68-B68</f>
-        <v>1.4120370396994986E-3</v>
+        <v/>
       </c>
       <c r="F68" s="2">
         <f>D68-B68</f>
-        <v>1.4930555553291924E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="n">
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -2434,15 +2440,15 @@
       </c>
       <c r="E69" s="2">
         <f>C69-B69</f>
-        <v>5.7870369346346706E-5</v>
+        <v/>
       </c>
       <c r="F69" s="2">
         <f>D69-B69</f>
-        <v>4.2824073898373172E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="n">
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -2456,15 +2462,15 @@
       </c>
       <c r="E70" s="2">
         <f>C70-B70</f>
-        <v>5.7870369346346706E-5</v>
+        <v/>
       </c>
       <c r="F70" s="2">
         <f>D70-B70</f>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="n">
         <v>17</v>
       </c>
       <c r="B71" t="s">
@@ -2478,15 +2484,15 @@
       </c>
       <c r="E71" s="2">
         <f>C71-B71</f>
-        <v>9.2592592409346253E-5</v>
+        <v/>
       </c>
       <c r="F71" s="2">
         <f>D71-B71</f>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="n">
         <v>7</v>
       </c>
       <c r="B72" t="s">
@@ -2499,16 +2505,16 @@
         <v>165</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E81" si="6">C72-B72</f>
-        <v>5.7870369346346706E-5</v>
+        <f>C72-B72</f>
+        <v/>
       </c>
       <c r="F72" s="2">
-        <f t="shared" ref="F72:F81" si="7">D72-B72</f>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+        <f>D72-B72</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="n">
         <v>20</v>
       </c>
       <c r="B73" t="s">
@@ -2521,16 +2527,16 @@
         <v>168</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="6"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C73-B73</f>
+        <v/>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="7"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+        <f>D73-B73</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="n">
         <v>18</v>
       </c>
       <c r="B74" t="s">
@@ -2543,16 +2549,16 @@
         <v>170</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="6"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C74-B74</f>
+        <v/>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="7"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+        <f>D74-B74</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="n">
         <v>46</v>
       </c>
       <c r="B75" t="s">
@@ -2565,16 +2571,16 @@
         <v>173</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="6"/>
-        <v>2.6736111103673466E-3</v>
+        <f>C75-B75</f>
+        <v/>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="7"/>
-        <v>2.8472222256823443E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+        <f>D75-B75</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="n">
         <v>66</v>
       </c>
       <c r="B76" t="s">
@@ -2587,16 +2593,16 @@
         <v>175</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="6"/>
-        <v>8.6805555474711582E-4</v>
+        <f>C76-B76</f>
+        <v/>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="7"/>
-        <v>8.6805555474711582E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+        <f>D76-B76</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="n">
         <v>67</v>
       </c>
       <c r="B77" t="s">
@@ -2609,16 +2615,16 @@
         <v>177</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="6"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C77-B77</f>
+        <v/>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="7"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+        <f>D77-B77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="n">
         <v>20</v>
       </c>
       <c r="B78" t="s">
@@ -2631,16 +2637,16 @@
         <v>179</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="6"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C78-B78</f>
+        <v/>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="7"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+        <f>D78-B78</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="n">
         <v>63</v>
       </c>
       <c r="B79" t="s">
@@ -2653,16 +2659,16 @@
         <v>181</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0416666918899864E-4</v>
+        <f>C79-B79</f>
+        <v/>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0416666918899864E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+        <f>D79-B79</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="n">
         <v>67</v>
       </c>
       <c r="B80" t="s">
@@ -2675,16 +2681,16 @@
         <v>183</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="6"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C80-B80</f>
+        <v/>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="7"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+        <f>D80-B80</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="n">
         <v>77</v>
       </c>
       <c r="B81" t="s">
@@ -2697,16 +2703,114 @@
         <v>186</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="6"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C81-B81</f>
+        <v/>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="7"/>
-        <v>8.101852290565148E-5</v>
+        <f>D81-B81</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="n">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="n">
+        <v>67</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="n">
+        <v>71</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="n">
+        <v>46</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="n">
+        <v>43</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="n">
+        <v>68</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="n">
+        <v>29</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot Framework\Mykiot_Git\Mykiot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="194">
   <si>
     <t>Current job</t>
   </si>
@@ -590,39 +595,44 @@
   </si>
   <si>
     <t>2021-04-26 17:47:35</t>
+  </si>
+  <si>
+    <t>2021-05-11 16:36:14</t>
+  </si>
+  <si>
+    <t>2021-05-11 16:36:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,19 +647,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -939,27 +959,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.140625"/>
-    <col customWidth="1" max="2" min="2" width="37.140625"/>
-    <col customWidth="1" max="3" min="3" width="40.85546875"/>
-    <col customWidth="1" max="4" min="4" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" width="37.85546875"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +989,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -987,24 +1003,24 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f>C2-B2</f>
-        <v/>
+        <f t="shared" ref="E2:E33" si="0">C2-B2</f>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F2" s="2">
-        <f>D2-B2</f>
-        <v/>
+        <f t="shared" ref="F2:F33" si="1">D2-B2</f>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(E2:E60)</f>
-        <v/>
+        <v>5.8498116783793793E-4</v>
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(F2:F60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="n">
+        <v>8.451035781467523E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1017,16 +1033,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <f>C3-B3</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6203703853534535E-4</v>
       </c>
       <c r="F3" s="2">
-        <f>D3-B3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="n">
+        <f t="shared" si="1"/>
+        <v>1.6203703853534535E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1039,16 +1055,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>C4-B4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.7152777804294601E-3</v>
       </c>
       <c r="F4" s="2">
-        <f>D4-B4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="n">
+        <f t="shared" si="1"/>
+        <v>3.7268518499331549E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1061,16 +1077,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <f>C5-B5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F5" s="2">
-        <f>D5-B5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1083,16 +1099,16 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <f>C6-B6</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.9861110862111673E-4</v>
       </c>
       <c r="F6" s="2">
-        <f>D6-B6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="n">
+        <f t="shared" si="1"/>
+        <v>4.5717592583969235E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1105,16 +1121,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <f>C7-B7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6087963012978435E-3</v>
       </c>
       <c r="F7" s="2">
-        <f>D7-B7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="n">
+        <f t="shared" si="1"/>
+        <v>1.6087963012978435E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1127,16 +1143,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <f>C8-B8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F8" s="2">
-        <f>D8-B8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="n">
+        <f t="shared" si="1"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1149,16 +1165,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <f>C9-B9</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F9" s="2">
-        <f>D9-B9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1673</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1171,16 +1187,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <f>C10-B10</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.8611110833007842E-4</v>
       </c>
       <c r="F10" s="2">
-        <f>D10-B10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="n">
+        <f t="shared" si="1"/>
+        <v>4.9768518510973081E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1193,16 +1209,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="2">
-        <f>C11-B11</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F11" s="2">
-        <f>D11-B11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="n">
+        <f t="shared" si="1"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1215,16 +1231,16 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <f>C12-B12</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F12" s="2">
-        <f>D12-B12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="n">
+        <f t="shared" si="1"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1237,16 +1253,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="2">
-        <f>C13-B13</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F13" s="2">
-        <f>D13-B13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1259,16 +1275,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="2">
-        <f>C14-B14</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F14" s="2">
-        <f>D14-B14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1666666220407933E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1281,16 +1297,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <f>C15-B15</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F15" s="2">
-        <f>D15-B15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="n">
+        <f t="shared" si="1"/>
+        <v>3.0092593078734353E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1303,16 +1319,16 @@
         <v>39</v>
       </c>
       <c r="E16" s="2">
-        <f>C16-B16</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F16" s="2">
-        <f>D16-B16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="n">
+        <f t="shared" si="1"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1325,16 +1341,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="2">
-        <f>C17-B17</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F17" s="2">
-        <f>D17-B17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1666666220407933E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1347,16 +1363,16 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <f>C18-B18</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.787037662230432E-5</v>
       </c>
       <c r="F18" s="2">
-        <f>D18-B18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="n">
+        <f t="shared" si="1"/>
+        <v>4.7453703882638365E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1369,16 +1385,16 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <f>C19-B19</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F19" s="2">
-        <f>D19-B19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="n">
+        <f t="shared" si="1"/>
+        <v>3.9351851592073217E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1391,16 +1407,16 @@
         <v>51</v>
       </c>
       <c r="E20" s="2">
-        <f>C20-B20</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.1574076779652387E-5</v>
       </c>
       <c r="F20" s="2">
-        <f>D20-B20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="n">
+        <f t="shared" si="1"/>
+        <v>2.314814628334716E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1413,16 +1429,16 @@
         <v>54</v>
       </c>
       <c r="E21" s="2">
-        <f>C21-B21</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F21" s="2">
-        <f>D21-B21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="n">
+        <f t="shared" si="1"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1435,16 +1451,16 @@
         <v>56</v>
       </c>
       <c r="E22" s="2">
-        <f>C22-B22</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F22" s="2">
-        <f>D22-B22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="n">
+        <f t="shared" si="1"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1457,16 +1473,16 @@
         <v>59</v>
       </c>
       <c r="E23" s="2">
-        <f>C23-B23</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F23" s="2">
-        <f>D23-B23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="n">
+        <f t="shared" si="1"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1479,16 +1495,16 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
-        <f>C24-B24</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.3935185133013874E-3</v>
       </c>
       <c r="F24" s="2">
-        <f>D24-B24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="n">
+        <f t="shared" si="1"/>
+        <v>7.6388888846850023E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1501,16 +1517,16 @@
         <v>64</v>
       </c>
       <c r="E25" s="2">
-        <f>C25-B25</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1990740788169205E-4</v>
       </c>
       <c r="F25" s="2">
-        <f>D25-B25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1990740788169205E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1523,16 +1539,16 @@
         <v>66</v>
       </c>
       <c r="E26" s="2">
-        <f>C26-B26</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.546296309446916E-4</v>
       </c>
       <c r="F26" s="2">
-        <f>D26-B26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="n">
+        <f t="shared" si="1"/>
+        <v>2.546296309446916E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1545,16 +1561,16 @@
         <v>67</v>
       </c>
       <c r="E27" s="2">
-        <f>C27-B27</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f>D27-B27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="n">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1567,16 +1583,16 @@
         <v>70</v>
       </c>
       <c r="E28" s="2">
-        <f>C28-B28</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.1435185194131918E-3</v>
       </c>
       <c r="F28" s="2">
-        <f>D28-B28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1550925961928442E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1589,16 +1605,16 @@
         <v>72</v>
       </c>
       <c r="E29" s="2">
-        <f>C29-B29</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.4398147767642513E-4</v>
       </c>
       <c r="F29" s="2">
-        <f>D29-B29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="n">
+        <f t="shared" si="1"/>
+        <v>5.4398147767642513E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1611,16 +1627,16 @@
         <v>74</v>
       </c>
       <c r="E30" s="2">
-        <f>C30-B30</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F30" s="2">
-        <f>D30-B30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1633,16 +1649,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="2">
-        <f>C31-B31</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.7962963152676821E-4</v>
       </c>
       <c r="F31" s="2">
-        <f>D31-B31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="n">
+        <f t="shared" si="1"/>
+        <v>8.9120370103046298E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1655,16 +1671,16 @@
         <v>79</v>
       </c>
       <c r="E32" s="2">
-        <f>C32-B32</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.2337962946039625E-3</v>
       </c>
       <c r="F32" s="2">
-        <f>D32-B32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="n">
+        <f t="shared" si="1"/>
+        <v>2.2337962946039625E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1677,16 +1693,16 @@
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <f>C33-B33</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1990740788169205E-3</v>
       </c>
       <c r="F33" s="2">
-        <f>D33-B33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1990740788169205E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1699,16 +1715,16 @@
         <v>84</v>
       </c>
       <c r="E34" s="2">
-        <f>C34-B34</f>
-        <v/>
+        <f t="shared" ref="E34:E60" si="2">C34-B34</f>
+        <v>2.1064814864075743E-3</v>
       </c>
       <c r="F34" s="2">
-        <f>D34-B34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="n">
+        <f t="shared" ref="F34:F60" si="3">D34-B34</f>
+        <v>6.3888888907968067E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1721,16 +1737,16 @@
         <v>86</v>
       </c>
       <c r="E35" s="2">
-        <f>C35-B35</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.0092592351138592E-4</v>
       </c>
       <c r="F35" s="2">
-        <f>D35-B35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="n">
+        <f t="shared" si="3"/>
+        <v>3.0092592351138592E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1743,16 +1759,16 @@
         <v>88</v>
       </c>
       <c r="E36" s="2">
-        <f>C36-B36</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.3564814657438546E-4</v>
       </c>
       <c r="F36" s="2">
-        <f>D36-B36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="n">
+        <f t="shared" si="3"/>
+        <v>3.3564814657438546E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1765,16 +1781,16 @@
         <v>91</v>
       </c>
       <c r="E37" s="2">
-        <f>C37-B37</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F37" s="2">
-        <f>D37-B37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1787,16 +1803,16 @@
         <v>93</v>
       </c>
       <c r="E38" s="2">
-        <f>C38-B38</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.125000002910383E-4</v>
       </c>
       <c r="F38" s="2">
-        <f>D38-B38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="n">
+        <f t="shared" si="3"/>
+        <v>3.125000002910383E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1809,16 +1825,16 @@
         <v>96</v>
       </c>
       <c r="E39" s="2">
-        <f>C39-B39</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.3240740817273036E-4</v>
       </c>
       <c r="F39" s="2">
-        <f>D39-B39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="n">
+        <f t="shared" si="3"/>
+        <v>2.1412037021946162E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1831,16 +1847,16 @@
         <v>99</v>
       </c>
       <c r="E40" s="2">
-        <f>C40-B40</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F40" s="2">
-        <f>D40-B40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1853,16 +1869,16 @@
         <v>102</v>
       </c>
       <c r="E41" s="2">
-        <f>C41-B41</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2.78935184906004E-3</v>
       </c>
       <c r="F41" s="2">
-        <f>D41-B41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="n">
+        <f t="shared" si="3"/>
+        <v>2.9629629643750377E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1875,16 +1891,16 @@
         <v>104</v>
       </c>
       <c r="E42" s="2">
-        <f>C42-B42</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F42" s="2">
-        <f>D42-B42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1897,16 +1913,16 @@
         <v>107</v>
       </c>
       <c r="E43" s="2">
-        <f>C43-B43</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>7.4074073927477002E-4</v>
       </c>
       <c r="F43" s="2">
-        <f>D43-B43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="n">
+        <f t="shared" si="3"/>
+        <v>1.0763888931251131E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1919,16 +1935,16 @@
         <v>109</v>
       </c>
       <c r="E44" s="2">
-        <f>C44-B44</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F44" s="2">
-        <f>D44-B44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1941,16 +1957,16 @@
         <v>111</v>
       </c>
       <c r="E45" s="2">
-        <f>C45-B45</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F45" s="2">
-        <f>D45-B45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1963,16 +1979,16 @@
         <v>113</v>
       </c>
       <c r="E46" s="2">
-        <f>C46-B46</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F46" s="2">
-        <f>D46-B46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1985,16 +2001,16 @@
         <v>116</v>
       </c>
       <c r="E47" s="2">
-        <f>C47-B47</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F47" s="2">
-        <f>D47-B47</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2007,16 +2023,16 @@
         <v>118</v>
       </c>
       <c r="E48" s="2">
-        <f>C48-B48</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F48" s="2">
-        <f>D48-B48</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2029,16 +2045,16 @@
         <v>120</v>
       </c>
       <c r="E49" s="2">
-        <f>C49-B49</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722222335403785E-4</v>
       </c>
       <c r="F49" s="2">
-        <f>D49-B49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722222335403785E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2051,16 +2067,16 @@
         <v>123</v>
       </c>
       <c r="E50" s="2">
-        <f>C50-B50</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.273148154723458E-4</v>
       </c>
       <c r="F50" s="2">
-        <f>D50-B50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="n">
+        <f t="shared" si="3"/>
+        <v>1.3888888497604057E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2073,16 +2089,16 @@
         <v>125</v>
       </c>
       <c r="E51" s="2">
-        <f>C51-B51</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F51" s="2">
-        <f>D51-B51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2095,16 +2111,16 @@
         <v>128</v>
       </c>
       <c r="E52" s="2">
-        <f>C52-B52</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F52" s="2">
-        <f>D52-B52</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2117,16 +2133,16 @@
         <v>130</v>
       </c>
       <c r="E53" s="2">
-        <f>C53-B53</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F53" s="2">
-        <f>D53-B53</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>334</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2139,16 +2155,16 @@
         <v>133</v>
       </c>
       <c r="E54" s="2">
-        <f>C54-B54</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>8.101852290565148E-5</v>
       </c>
       <c r="F54" s="2">
-        <f>D54-B54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="n">
+        <f t="shared" si="3"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2161,16 +2177,16 @@
         <v>136</v>
       </c>
       <c r="E55" s="2">
-        <f>C55-B55</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.398148157633841E-4</v>
       </c>
       <c r="F55" s="2">
-        <f>D55-B55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="n">
+        <f t="shared" si="3"/>
+        <v>4.5138888526707888E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2183,16 +2199,16 @@
         <v>138</v>
       </c>
       <c r="E56" s="2">
-        <f>C56-B56</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.787037662230432E-5</v>
       </c>
       <c r="F56" s="2">
-        <f>D56-B56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="n">
+        <f t="shared" si="3"/>
+        <v>5.787037662230432E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2205,16 +2221,16 @@
         <v>141</v>
       </c>
       <c r="E57" s="2">
-        <f>C57-B57</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.1689814855344594E-3</v>
       </c>
       <c r="F57" s="2">
-        <f>D57-B57</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="n">
+        <f t="shared" si="3"/>
+        <v>1.527777778392192E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>186</v>
       </c>
       <c r="B58" t="s">
@@ -2227,16 +2243,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="2">
-        <f>C58-B58</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F58" s="2">
-        <f>D58-B58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>52</v>
       </c>
       <c r="B59" t="s">
@@ -2249,16 +2265,16 @@
         <v>146</v>
       </c>
       <c r="E59" s="2">
-        <f>C59-B59</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>9.2592592409346253E-4</v>
       </c>
       <c r="F59" s="2">
-        <f>D59-B59</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="n">
+        <f t="shared" si="3"/>
+        <v>1.5509259246755391E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>93</v>
       </c>
       <c r="B60" t="s">
@@ -2271,96 +2287,96 @@
         <v>148</v>
       </c>
       <c r="E60" s="2">
-        <f>C60-B60</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.3888888497604057E-4</v>
       </c>
       <c r="F60" s="2">
-        <f>D60-B60</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="n">
+        <f t="shared" si="3"/>
+        <v>1.3888888497604057E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>78866</v>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="n">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>102105</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="n">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>138164</v>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="n">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>14189</v>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="n">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>7665</v>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="n">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>83</v>
       </c>
       <c r="B66" t="s">
@@ -2373,16 +2389,16 @@
         <v>150</v>
       </c>
       <c r="E66" s="2">
-        <f>C66-B66</f>
-        <v/>
+        <f t="shared" ref="E66:E81" si="4">C66-B66</f>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F66" s="2">
-        <f>D66-B66</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="n">
+        <f t="shared" ref="F66:F81" si="5">D66-B66</f>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>4353</v>
       </c>
       <c r="B67" t="s">
@@ -2395,16 +2411,16 @@
         <v>153</v>
       </c>
       <c r="E67" s="2">
-        <f>C67-B67</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>4.537037035333924E-3</v>
       </c>
       <c r="F67" s="2">
-        <f>D67-B67</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="n">
+        <f t="shared" si="5"/>
+        <v>3.8391203699575271E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>30</v>
       </c>
       <c r="B68" t="s">
@@ -2417,16 +2433,16 @@
         <v>156</v>
       </c>
       <c r="E68" s="2">
-        <f>C68-B68</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1.4120370396994986E-3</v>
       </c>
       <c r="F68" s="2">
-        <f>D68-B68</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="n">
+        <f t="shared" si="5"/>
+        <v>1.4930555553291924E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -2439,16 +2455,16 @@
         <v>159</v>
       </c>
       <c r="E69" s="2">
-        <f>C69-B69</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F69" s="2">
-        <f>D69-B69</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="n">
+        <f t="shared" si="5"/>
+        <v>4.2824073898373172E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -2461,16 +2477,16 @@
         <v>161</v>
       </c>
       <c r="E70" s="2">
-        <f>C70-B70</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F70" s="2">
-        <f>D70-B70</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>17</v>
       </c>
       <c r="B71" t="s">
@@ -2483,16 +2499,16 @@
         <v>163</v>
       </c>
       <c r="E71" s="2">
-        <f>C71-B71</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>9.2592592409346253E-5</v>
       </c>
       <c r="F71" s="2">
-        <f>D71-B71</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="n">
+        <f t="shared" si="5"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>7</v>
       </c>
       <c r="B72" t="s">
@@ -2505,16 +2521,16 @@
         <v>165</v>
       </c>
       <c r="E72" s="2">
-        <f>C72-B72</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F72" s="2">
-        <f>D72-B72</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>20</v>
       </c>
       <c r="B73" t="s">
@@ -2527,16 +2543,16 @@
         <v>168</v>
       </c>
       <c r="E73" s="2">
-        <f>C73-B73</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F73" s="2">
-        <f>D73-B73</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>18</v>
       </c>
       <c r="B74" t="s">
@@ -2549,16 +2565,16 @@
         <v>170</v>
       </c>
       <c r="E74" s="2">
-        <f>C74-B74</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F74" s="2">
-        <f>D74-B74</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="n">
+        <f t="shared" si="5"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>46</v>
       </c>
       <c r="B75" t="s">
@@ -2571,16 +2587,16 @@
         <v>173</v>
       </c>
       <c r="E75" s="2">
-        <f>C75-B75</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>2.6736111103673466E-3</v>
       </c>
       <c r="F75" s="2">
-        <f>D75-B75</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="n">
+        <f t="shared" si="5"/>
+        <v>2.8472222256823443E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>66</v>
       </c>
       <c r="B76" t="s">
@@ -2593,16 +2609,16 @@
         <v>175</v>
       </c>
       <c r="E76" s="2">
-        <f>C76-B76</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>8.6805555474711582E-4</v>
       </c>
       <c r="F76" s="2">
-        <f>D76-B76</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="n">
+        <f t="shared" si="5"/>
+        <v>8.6805555474711582E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>67</v>
       </c>
       <c r="B77" t="s">
@@ -2615,16 +2631,16 @@
         <v>177</v>
       </c>
       <c r="E77" s="2">
-        <f>C77-B77</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F77" s="2">
-        <f>D77-B77</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="n">
+        <f t="shared" si="5"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>20</v>
       </c>
       <c r="B78" t="s">
@@ -2637,16 +2653,16 @@
         <v>179</v>
       </c>
       <c r="E78" s="2">
-        <f>C78-B78</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F78" s="2">
-        <f>D78-B78</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="n">
+        <f t="shared" si="5"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>63</v>
       </c>
       <c r="B79" t="s">
@@ -2659,16 +2675,16 @@
         <v>181</v>
       </c>
       <c r="E79" s="2">
-        <f>C79-B79</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1.0416666918899864E-4</v>
       </c>
       <c r="F79" s="2">
-        <f>D79-B79</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="n">
+        <f t="shared" si="5"/>
+        <v>1.0416666918899864E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>67</v>
       </c>
       <c r="B80" t="s">
@@ -2681,16 +2697,16 @@
         <v>183</v>
       </c>
       <c r="E80" s="2">
-        <f>C80-B80</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F80" s="2">
-        <f>D80-B80</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="n">
+        <f t="shared" si="5"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>77</v>
       </c>
       <c r="B81" t="s">
@@ -2703,16 +2719,16 @@
         <v>186</v>
       </c>
       <c r="E81" s="2">
-        <f>C81-B81</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F81" s="2">
-        <f>D81-B81</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="n">
+        <f t="shared" si="5"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>61</v>
       </c>
       <c r="B82" t="s">
@@ -2725,64 +2741,64 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>67</v>
       </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="n">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>71</v>
       </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="n">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>46</v>
       </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="n">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>43</v>
       </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="n">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>68</v>
       </c>
       <c r="B87" t="s">
@@ -2795,22 +2811,136 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>29</v>
       </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>53</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F90">
+        <v>1124</v>
+      </c>
+      <c r="G90">
+        <f>AVERAGE(F90:F95)</f>
+        <v>359.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="F91">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F92">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>605</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="3">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="F94">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="3">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="F95">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="201">
   <si>
     <t>Current job</t>
   </si>
@@ -601,6 +601,27 @@
   </si>
   <si>
     <t>2021-05-11 16:36:19</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:07:20</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:07:26</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:29:39</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:29:46</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:30:57</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:31:05</t>
+  </si>
+  <si>
+    <t>2021-05-17 16:31:06</t>
   </si>
 </sst>
 </file>
@@ -649,13 +670,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2725,7 @@
         <v>6.9444446125999093E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -2727,7 +2747,7 @@
         <v>8.101852290565148E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>61</v>
       </c>
@@ -2740,8 +2760,16 @@
       <c r="D82" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="2">
+        <f t="shared" ref="E82:E99" si="6">C82-B82</f>
+        <v>1.0879629626288079E-3</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" ref="F82:F99" si="7">D82-B82</f>
+        <v>1.0879629626288079E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>67</v>
       </c>
@@ -2754,8 +2782,16 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E83" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>71</v>
       </c>
@@ -2768,8 +2804,16 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>46</v>
       </c>
@@ -2782,8 +2826,16 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>43</v>
       </c>
@@ -2796,8 +2848,16 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>68</v>
       </c>
@@ -2810,8 +2870,16 @@
       <c r="D87" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="7"/>
+        <v>5.9606481445371173E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>29</v>
       </c>
@@ -2824,8 +2892,16 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>53</v>
       </c>
@@ -2838,8 +2914,16 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44</v>
       </c>
@@ -2852,18 +2936,16 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" s="3">
-        <v>0.78055555555555556</v>
-      </c>
-      <c r="F90">
-        <v>1124</v>
-      </c>
-      <c r="G90">
-        <f>AVERAGE(F90:F95)</f>
-        <v>359.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44</v>
       </c>
@@ -2876,14 +2958,16 @@
       <c r="D91" t="s">
         <v>193</v>
       </c>
-      <c r="E91" s="3">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="F91">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="2">
+        <f t="shared" si="6"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="7"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>43</v>
       </c>
@@ -2896,14 +2980,16 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92" s="3">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="F92">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>605</v>
       </c>
@@ -2916,27 +3002,145 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93" s="3">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="F93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E94" s="3">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="F94">
+      <c r="E93" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444438850041479E-5</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9444438850041479E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>20</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E95" s="3">
-        <v>8.4027777777777771E-2</v>
-      </c>
-      <c r="F95">
-        <v>121</v>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="6"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="7"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>42</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="6"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0416666191304103E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>49</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot Framework\Mykiot_Git\Mykiot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>Current job</t>
   </si>
@@ -622,38 +617,57 @@
   </si>
   <si>
     <t>2021-05-17 16:31:06</t>
+  </si>
+  <si>
+    <t>2021-05-24 15:11:06</t>
+  </si>
+  <si>
+    <t>2021-05-24 15:11:25</t>
+  </si>
+  <si>
+    <t>2021-05-24 15:14:22</t>
+  </si>
+  <si>
+    <t>2021-05-24 15:14:25</t>
+  </si>
+  <si>
+    <t>2021-05-24 15:50:42</t>
+  </si>
+  <si>
+    <t>2021-05-24 15:50:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,28 +682,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -979,23 +984,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="15.140625"/>
+    <col customWidth="1" max="2" min="2" width="37.140625"/>
+    <col customWidth="1" max="3" min="3" width="40.85546875"/>
+    <col customWidth="1" max="4" min="4" width="34.85546875"/>
+    <col customWidth="1" max="5" min="5" width="37.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.25" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1018,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1023,24 +1032,24 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="0">C2-B2</f>
-        <v>5.7870369346346706E-5</v>
+        <f>C2-B2</f>
+        <v/>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F33" si="1">D2-B2</f>
-        <v>5.7870369346346706E-5</v>
+        <f>D2-B2</f>
+        <v/>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(E2:E60)</f>
-        <v>5.8498116783793793E-4</v>
+        <v/>
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(F2:F60)</f>
-        <v>8.451035781467523E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1053,16 +1062,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6203703853534535E-4</v>
+        <f>C3-B3</f>
+        <v/>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6203703853534535E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <f>D3-B3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="n">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1075,16 +1084,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7152777804294601E-3</v>
+        <f>C4-B4</f>
+        <v/>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>3.7268518499331549E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <f>D4-B4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="n">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1097,16 +1106,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C5-B5</f>
+        <v/>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <f>D5-B5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="n">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1119,16 +1128,16 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9861110862111673E-4</v>
+        <f>C6-B6</f>
+        <v/>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5717592583969235E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <f>D6-B6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="n">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1141,16 +1150,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6087963012978435E-3</v>
+        <f>C7-B7</f>
+        <v/>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6087963012978435E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <f>D7-B7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="n">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1163,16 +1172,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C8-B8</f>
+        <v/>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1018515629693866E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <f>D8-B8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="n">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1185,16 +1194,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C9-B9</f>
+        <v/>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <f>D9-B9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="n">
         <v>1673</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1207,16 +1216,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8611110833007842E-4</v>
+        <f>C10-B10</f>
+        <v/>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>4.9768518510973081E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <f>D10-B10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="n">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1229,16 +1238,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C11-B11</f>
+        <v/>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <f>D11-B11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="n">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1251,16 +1260,16 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C12-B12</f>
+        <v/>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6296292566694319E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <f>D12-B12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1273,16 +1282,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C13-B13</f>
+        <v/>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <f>D13-B13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="n">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1295,16 +1304,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C14-B14</f>
+        <v/>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1666666220407933E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <f>D14-B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1317,16 +1326,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296299842651933E-5</v>
+        <f>C15-B15</f>
+        <v/>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0092593078734353E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <f>D15-B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="n">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1339,16 +1348,16 @@
         <v>39</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296299842651933E-5</v>
+        <f>C16-B16</f>
+        <v/>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <f>D16-B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="n">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1361,16 +1370,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C17-B17</f>
+        <v/>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1666666220407933E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <f>D17-B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="n">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1383,16 +1392,16 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.787037662230432E-5</v>
+        <f>C18-B18</f>
+        <v/>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7453703882638365E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <f>D18-B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="n">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1405,16 +1414,16 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C19-B19</f>
+        <v/>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>3.9351851592073217E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <f>D19-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="n">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1427,16 +1436,16 @@
         <v>51</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1574076779652387E-5</v>
+        <f>C20-B20</f>
+        <v/>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>2.314814628334716E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <f>D20-B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1449,16 +1458,16 @@
         <v>54</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C21-B21</f>
+        <v/>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <f>D21-B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="n">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1471,16 +1480,16 @@
         <v>56</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C22-B22</f>
+        <v/>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <f>D22-B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1493,16 +1502,16 @@
         <v>59</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C23-B23</f>
+        <v/>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <f>D23-B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="n">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1515,16 +1524,16 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3935185133013874E-3</v>
+        <f>C24-B24</f>
+        <v/>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6388888846850023E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <f>D24-B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="n">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1537,16 +1546,16 @@
         <v>64</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1990740788169205E-4</v>
+        <f>C25-B25</f>
+        <v/>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1990740788169205E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <f>D25-B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="n">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1559,16 +1568,16 @@
         <v>66</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>2.546296309446916E-4</v>
+        <f>C26-B26</f>
+        <v/>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>2.546296309446916E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <f>D26-B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="n">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1581,16 +1590,16 @@
         <v>67</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C27-B27</f>
+        <v/>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <f>D27-B27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="n">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1603,16 +1612,16 @@
         <v>70</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1435185194131918E-3</v>
+        <f>C28-B28</f>
+        <v/>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1550925961928442E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+        <f>D28-B28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="n">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1625,16 +1634,16 @@
         <v>72</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4398147767642513E-4</v>
+        <f>C29-B29</f>
+        <v/>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4398147767642513E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <f>D29-B29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="n">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1647,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C30-B30</f>
+        <v/>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <f>D30-B30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1669,16 +1678,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>8.7962963152676821E-4</v>
+        <f>C31-B31</f>
+        <v/>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
-        <v>8.9120370103046298E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <f>D31-B31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="n">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1691,16 +1700,16 @@
         <v>79</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2337962946039625E-3</v>
+        <f>C32-B32</f>
+        <v/>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2337962946039625E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <f>D32-B32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="n">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1713,16 +1722,16 @@
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1990740788169205E-3</v>
+        <f>C33-B33</f>
+        <v/>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1990740788169205E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <f>D33-B33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1735,16 +1744,16 @@
         <v>84</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E60" si="2">C34-B34</f>
-        <v>2.1064814864075743E-3</v>
+        <f>C34-B34</f>
+        <v/>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F60" si="3">D34-B34</f>
-        <v>6.3888888907968067E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <f>D34-B34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="n">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1757,16 +1766,16 @@
         <v>86</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0092592351138592E-4</v>
+        <f>C35-B35</f>
+        <v/>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0092592351138592E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <f>D35-B35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="n">
         <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1779,16 +1788,16 @@
         <v>88</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3564814657438546E-4</v>
+        <f>C36-B36</f>
+        <v/>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
-        <v>3.3564814657438546E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <f>D36-B36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="n">
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1801,16 +1810,16 @@
         <v>91</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C37-B37</f>
+        <v/>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+        <f>D37-B37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="n">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1823,16 +1832,16 @@
         <v>93</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="2"/>
-        <v>3.125000002910383E-4</v>
+        <f>C38-B38</f>
+        <v/>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
-        <v>3.125000002910383E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <f>D38-B38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="n">
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1845,16 +1854,16 @@
         <v>96</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3240740817273036E-4</v>
+        <f>C39-B39</f>
+        <v/>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1412037021946162E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <f>D39-B39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1867,16 +1876,16 @@
         <v>99</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C40-B40</f>
+        <v/>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <f>D40-B40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="n">
         <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1889,16 +1898,16 @@
         <v>102</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="2"/>
-        <v>2.78935184906004E-3</v>
+        <f>C41-B41</f>
+        <v/>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9629629643750377E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <f>D41-B41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="n">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1911,16 +1920,16 @@
         <v>104</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C42-B42</f>
+        <v/>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+        <f>D42-B42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="n">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1933,16 +1942,16 @@
         <v>107</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4074073927477002E-4</v>
+        <f>C43-B43</f>
+        <v/>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0763888931251131E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <f>D43-B43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="n">
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1955,16 +1964,16 @@
         <v>109</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C44-B44</f>
+        <v/>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <f>D44-B44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="n">
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1977,16 +1986,16 @@
         <v>111</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C45-B45</f>
+        <v/>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+        <f>D45-B45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="n">
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1999,16 +2008,16 @@
         <v>113</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="2"/>
-        <v>4.6296299842651933E-5</v>
+        <f>C46-B46</f>
+        <v/>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+        <f>D46-B46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="n">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2021,16 +2030,16 @@
         <v>116</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C47-B47</f>
+        <v/>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+        <f>D47-B47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="n">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2043,16 +2052,16 @@
         <v>118</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C48-B48</f>
+        <v/>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+        <f>D48-B48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="n">
         <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2065,16 +2074,16 @@
         <v>120</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722222335403785E-4</v>
+        <f>C49-B49</f>
+        <v/>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4722222335403785E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <f>D49-B49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="n">
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2087,16 +2096,16 @@
         <v>123</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="2"/>
-        <v>1.273148154723458E-4</v>
+        <f>C50-B50</f>
+        <v/>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3888888497604057E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <f>D50-B50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="n">
         <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2109,16 +2118,16 @@
         <v>125</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="2"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C51-B51</f>
+        <v/>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296292566694319E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <f>D51-B51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="n">
         <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2131,16 +2140,16 @@
         <v>128</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C52-B52</f>
+        <v/>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6296299842651933E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <f>D52-B52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="n">
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2153,16 +2162,16 @@
         <v>130</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C53-B53</f>
+        <v/>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <f>D53-B53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="n">
         <v>334</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2175,16 +2184,16 @@
         <v>133</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="2"/>
-        <v>8.101852290565148E-5</v>
+        <f>C54-B54</f>
+        <v/>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="3"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+        <f>D54-B54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="n">
         <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2197,16 +2206,16 @@
         <v>136</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="2"/>
-        <v>4.398148157633841E-4</v>
+        <f>C55-B55</f>
+        <v/>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>4.5138888526707888E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <f>D55-B55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="n">
         <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2219,16 +2228,16 @@
         <v>138</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="2"/>
-        <v>5.787037662230432E-5</v>
+        <f>C56-B56</f>
+        <v/>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="3"/>
-        <v>5.787037662230432E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+        <f>D56-B56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="n">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2241,16 +2250,16 @@
         <v>141</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1689814855344594E-3</v>
+        <f>C57-B57</f>
+        <v/>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="3"/>
-        <v>1.527777778392192E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+        <f>D57-B57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="n">
         <v>186</v>
       </c>
       <c r="B58" t="s">
@@ -2263,16 +2272,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C58-B58</f>
+        <v/>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+        <f>D58-B58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="n">
         <v>52</v>
       </c>
       <c r="B59" t="s">
@@ -2285,16 +2294,16 @@
         <v>146</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="2"/>
-        <v>9.2592592409346253E-4</v>
+        <f>C59-B59</f>
+        <v/>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5509259246755391E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+        <f>D59-B59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="n">
         <v>93</v>
       </c>
       <c r="B60" t="s">
@@ -2307,96 +2316,96 @@
         <v>148</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3888888497604057E-4</v>
+        <f>C60-B60</f>
+        <v/>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3888888497604057E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+        <f>D60-B60</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="n">
         <v>78866</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="n">
         <v>102105</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="n">
         <v>138164</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="n">
         <v>14189</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="n">
         <v>7665</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="n">
         <v>83</v>
       </c>
       <c r="B66" t="s">
@@ -2409,16 +2418,16 @@
         <v>150</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66:E81" si="4">C66-B66</f>
-        <v>3.4722223062999547E-5</v>
+        <f>C66-B66</f>
+        <v/>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F81" si="5">D66-B66</f>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+        <f>D66-B66</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="n">
         <v>4353</v>
       </c>
       <c r="B67" t="s">
@@ -2431,16 +2440,16 @@
         <v>153</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="4"/>
-        <v>4.537037035333924E-3</v>
+        <f>C67-B67</f>
+        <v/>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="5"/>
-        <v>3.8391203699575271E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+        <f>D67-B67</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="n">
         <v>30</v>
       </c>
       <c r="B68" t="s">
@@ -2453,16 +2462,16 @@
         <v>156</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4120370396994986E-3</v>
+        <f>C68-B68</f>
+        <v/>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="5"/>
-        <v>1.4930555553291924E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+        <f>D68-B68</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="n">
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -2475,16 +2484,16 @@
         <v>159</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="4"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C69-B69</f>
+        <v/>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="5"/>
-        <v>4.2824073898373172E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <f>D69-B69</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="n">
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -2497,16 +2506,16 @@
         <v>161</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="4"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C70-B70</f>
+        <v/>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="5"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+        <f>D70-B70</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="n">
         <v>17</v>
       </c>
       <c r="B71" t="s">
@@ -2519,16 +2528,16 @@
         <v>163</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="4"/>
-        <v>9.2592592409346253E-5</v>
+        <f>C71-B71</f>
+        <v/>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="5"/>
-        <v>9.2592592409346253E-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+        <f>D71-B71</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="n">
         <v>7</v>
       </c>
       <c r="B72" t="s">
@@ -2541,16 +2550,16 @@
         <v>165</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C72-B72</f>
+        <v/>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="5"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+        <f>D72-B72</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="n">
         <v>20</v>
       </c>
       <c r="B73" t="s">
@@ -2563,16 +2572,16 @@
         <v>168</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="4"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C73-B73</f>
+        <v/>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="5"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+        <f>D73-B73</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="n">
         <v>18</v>
       </c>
       <c r="B74" t="s">
@@ -2585,16 +2594,16 @@
         <v>170</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="4"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C74-B74</f>
+        <v/>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="5"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+        <f>D74-B74</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="n">
         <v>46</v>
       </c>
       <c r="B75" t="s">
@@ -2607,16 +2616,16 @@
         <v>173</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="4"/>
-        <v>2.6736111103673466E-3</v>
+        <f>C75-B75</f>
+        <v/>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="5"/>
-        <v>2.8472222256823443E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+        <f>D75-B75</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="n">
         <v>66</v>
       </c>
       <c r="B76" t="s">
@@ -2629,16 +2638,16 @@
         <v>175</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="4"/>
-        <v>8.6805555474711582E-4</v>
+        <f>C76-B76</f>
+        <v/>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="5"/>
-        <v>8.6805555474711582E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+        <f>D76-B76</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="n">
         <v>67</v>
       </c>
       <c r="B77" t="s">
@@ -2651,16 +2660,16 @@
         <v>177</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="4"/>
-        <v>3.4722223062999547E-5</v>
+        <f>C77-B77</f>
+        <v/>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="5"/>
-        <v>3.4722223062999547E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+        <f>D77-B77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="n">
         <v>20</v>
       </c>
       <c r="B78" t="s">
@@ -2673,16 +2682,16 @@
         <v>179</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="4"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C78-B78</f>
+        <v/>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="5"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+        <f>D78-B78</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="n">
         <v>63</v>
       </c>
       <c r="B79" t="s">
@@ -2695,16 +2704,16 @@
         <v>181</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0416666918899864E-4</v>
+        <f>C79-B79</f>
+        <v/>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0416666918899864E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+        <f>D79-B79</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="n">
         <v>67</v>
       </c>
       <c r="B80" t="s">
@@ -2717,16 +2726,16 @@
         <v>183</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="4"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C80-B80</f>
+        <v/>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="5"/>
-        <v>6.9444446125999093E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+        <f>D80-B80</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="n">
         <v>77</v>
       </c>
       <c r="B81" t="s">
@@ -2739,16 +2748,16 @@
         <v>186</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="4"/>
-        <v>6.9444446125999093E-5</v>
+        <f>C81-B81</f>
+        <v/>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="5"/>
-        <v>8.101852290565148E-5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+        <f>D81-B81</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="n">
         <v>61</v>
       </c>
       <c r="B82" t="s">
@@ -2761,104 +2770,104 @@
         <v>188</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" ref="E82:E99" si="6">C82-B82</f>
-        <v>1.0879629626288079E-3</v>
+        <f>C82-B82</f>
+        <v/>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F99" si="7">D82-B82</f>
-        <v>1.0879629626288079E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+        <f>D82-B82</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="n">
         <v>67</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C83-B83</f>
+        <v/>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+        <f>D83-B83</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="n">
         <v>71</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C84-B84</f>
+        <v/>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+        <f>D84-B84</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="n">
         <v>46</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C85-B85</f>
+        <v/>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+        <f>D85-B85</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="n">
         <v>43</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C86-B86</f>
+        <v/>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+        <f>D86-B86</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="n">
         <v>68</v>
       </c>
       <c r="B87" t="s">
@@ -2871,82 +2880,82 @@
         <v>191</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="6"/>
-        <v>4.6296292566694319E-5</v>
+        <f>C87-B87</f>
+        <v/>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="7"/>
-        <v>5.9606481445371173E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+        <f>D87-B87</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="n">
         <v>29</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C88-B88</f>
+        <v/>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+        <f>D88-B88</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="n">
         <v>53</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C89-B89</f>
+        <v/>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+        <f>D89-B89</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="n">
         <v>44</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C90-B90</f>
+        <v/>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+        <f>D90-B90</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="n">
         <v>44</v>
       </c>
       <c r="B91" t="s">
@@ -2959,60 +2968,60 @@
         <v>193</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="6"/>
-        <v>5.7870369346346706E-5</v>
+        <f>C91-B91</f>
+        <v/>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="7"/>
-        <v>5.7870369346346706E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+        <f>D91-B91</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="n">
         <v>43</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C92-B92</f>
+        <v/>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+        <f>D92-B92</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="n">
         <v>605</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C93-B93</f>
+        <v/>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+        <f>D93-B93</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="n">
         <v>30</v>
       </c>
       <c r="B94" t="s">
@@ -3025,60 +3034,60 @@
         <v>195</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="6"/>
-        <v>6.9444438850041479E-5</v>
+        <f>C94-B94</f>
+        <v/>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="7"/>
-        <v>6.9444438850041479E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+        <f>D94-B94</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="n">
         <v>20</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C95-B95</f>
+        <v/>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+        <f>D95-B95</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="n">
         <v>57</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C96-B96</f>
+        <v/>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+        <f>D96-B96</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="n">
         <v>38</v>
       </c>
       <c r="B97" t="s">
@@ -3091,16 +3100,16 @@
         <v>197</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="6"/>
-        <v>8.1018515629693866E-5</v>
+        <f>C97-B97</f>
+        <v/>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="7"/>
-        <v>8.1018515629693866E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+        <f>D97-B97</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="n">
         <v>42</v>
       </c>
       <c r="B98" t="s">
@@ -3113,38 +3122,140 @@
         <v>200</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="6"/>
-        <v>9.2592592409346253E-5</v>
+        <f>C98-B98</f>
+        <v/>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0416666191304103E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+        <f>D98-B98</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="n">
         <v>49</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C99-B99</f>
+        <v/>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="7"/>
+        <f>D99-B99</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="n">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="2">
+        <f>C100-B100</f>
+        <v/>
+      </c>
+      <c r="F100" s="2">
+        <f>D100-B100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="n">
+        <v>67</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="2">
+        <f>C101-B101</f>
+        <v/>
+      </c>
+      <c r="F101" s="2">
+        <f>D101-B101</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="n">
+        <v>64</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <f>C102-B102</f>
+        <v/>
+      </c>
+      <c r="F102" s="2">
+        <f>D102-B102</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="n">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" t="s">
+        <v>206</v>
+      </c>
+      <c r="E103" s="2">
+        <f>C103-B103</f>
+        <v/>
+      </c>
+      <c r="F103" s="2">
+        <f>D103-B103</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="n">
+        <v>37</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testthuti.xlsx
+++ b/testthuti.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot Framework\Mykiot_Git\Mykiot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="260">
   <si>
     <t>Current job</t>
   </si>
@@ -635,39 +640,197 @@
   </si>
   <si>
     <t>2021-05-24 15:50:49</t>
+  </si>
+  <si>
+    <t>2021-05-31 17:40:54</t>
+  </si>
+  <si>
+    <t>2021-05-31 17:41:01</t>
+  </si>
+  <si>
+    <t>2021-05-31 18:04:37</t>
+  </si>
+  <si>
+    <t>2021-05-31 18:04:44</t>
+  </si>
+  <si>
+    <t>2021-05-31 18:07:10</t>
+  </si>
+  <si>
+    <t>2021-05-31 18:07:17</t>
+  </si>
+  <si>
+    <t>2021-06-07 17:42:36</t>
+  </si>
+  <si>
+    <t>2021-06-07 17:42:42</t>
+  </si>
+  <si>
+    <t>2021-06-07 17:42:43</t>
+  </si>
+  <si>
+    <t>2021-06-14 11:23:28</t>
+  </si>
+  <si>
+    <t>2021-06-14 11:23:11</t>
+  </si>
+  <si>
+    <t>2021-06-14 11:23:12</t>
+  </si>
+  <si>
+    <t>2021-06-14 11:52:19</t>
+  </si>
+  <si>
+    <t>2021-06-14 11:52:04</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:13:04</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:13:10</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:13:41</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:14:13</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:14:19</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:14:38</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:14:28</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:15:58</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:15:48</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:15:49</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:17:56</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:19:45</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:19:59</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:25:12</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:26:33</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:30:01</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:31:52</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:31:42</t>
+  </si>
+  <si>
+    <t>2021-06-21 16:31:43</t>
+  </si>
+  <si>
+    <t>2021-06-29 08:59:01</t>
+  </si>
+  <si>
+    <t>2021-06-29 08:59:03</t>
+  </si>
+  <si>
+    <t>2021-06-29 09:00:03</t>
+  </si>
+  <si>
+    <t>2021-06-29 09:12:07</t>
+  </si>
+  <si>
+    <t>2021-06-29 09:12:05</t>
+  </si>
+  <si>
+    <t>2021-06-29 09:14:58</t>
+  </si>
+  <si>
+    <t>2021-06-29 09:14:56</t>
+  </si>
+  <si>
+    <t>2021-06-29 11:27:18</t>
+  </si>
+  <si>
+    <t>2021-06-29 11:27:33</t>
+  </si>
+  <si>
+    <t>2021-06-29 11:27:45</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:29:08</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:29:10</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:29:11</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:32:54</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:32:57</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:34:03</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:35:14</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:45:38</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:45:40</t>
+  </si>
+  <si>
+    <t>2021-07-06 09:45:42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,19 +845,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -984,27 +1156,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.140625"/>
-    <col customWidth="1" max="2" min="2" width="37.140625"/>
-    <col customWidth="1" max="3" min="3" width="40.85546875"/>
-    <col customWidth="1" max="4" min="4" width="34.85546875"/>
-    <col customWidth="1" max="5" min="5" width="37.85546875"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1186,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1032,24 +1200,24 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <f>C2-B2</f>
-        <v/>
+        <f t="shared" ref="E2:E33" si="0">C2-B2</f>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F2" s="2">
-        <f>D2-B2</f>
-        <v/>
+        <f t="shared" ref="F2:F33" si="1">D2-B2</f>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(E2:E60)</f>
-        <v/>
+        <v>5.8498116783793793E-4</v>
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(F2:F60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="n">
+        <v>8.451035781467523E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1062,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <f>C3-B3</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6203703853534535E-4</v>
       </c>
       <c r="F3" s="2">
-        <f>D3-B3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="n">
+        <f t="shared" si="1"/>
+        <v>1.6203703853534535E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1084,16 +1252,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>C4-B4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.7152777804294601E-3</v>
       </c>
       <c r="F4" s="2">
-        <f>D4-B4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="n">
+        <f t="shared" si="1"/>
+        <v>3.7268518499331549E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1106,16 +1274,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <f>C5-B5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F5" s="2">
-        <f>D5-B5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1128,16 +1296,16 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <f>C6-B6</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.9861110862111673E-4</v>
       </c>
       <c r="F6" s="2">
-        <f>D6-B6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="n">
+        <f t="shared" si="1"/>
+        <v>4.5717592583969235E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1150,16 +1318,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <f>C7-B7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6087963012978435E-3</v>
       </c>
       <c r="F7" s="2">
-        <f>D7-B7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="n">
+        <f t="shared" si="1"/>
+        <v>1.6087963012978435E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1172,16 +1340,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <f>C8-B8</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F8" s="2">
-        <f>D8-B8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="n">
+        <f t="shared" si="1"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1194,16 +1362,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <f>C9-B9</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F9" s="2">
-        <f>D9-B9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1673</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1216,16 +1384,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <f>C10-B10</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.8611110833007842E-4</v>
       </c>
       <c r="F10" s="2">
-        <f>D10-B10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="n">
+        <f t="shared" si="1"/>
+        <v>4.9768518510973081E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1238,16 +1406,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="2">
-        <f>C11-B11</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F11" s="2">
-        <f>D11-B11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="n">
+        <f t="shared" si="1"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1260,16 +1428,16 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <f>C12-B12</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F12" s="2">
-        <f>D12-B12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="n">
+        <f t="shared" si="1"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1282,16 +1450,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="2">
-        <f>C13-B13</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F13" s="2">
-        <f>D13-B13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="n">
+        <f t="shared" si="1"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1304,16 +1472,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="2">
-        <f>C14-B14</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F14" s="2">
-        <f>D14-B14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1666666220407933E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1326,16 +1494,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <f>C15-B15</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F15" s="2">
-        <f>D15-B15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="n">
+        <f t="shared" si="1"/>
+        <v>3.0092593078734353E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1348,16 +1516,16 @@
         <v>39</v>
       </c>
       <c r="E16" s="2">
-        <f>C16-B16</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F16" s="2">
-        <f>D16-B16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="n">
+        <f t="shared" si="1"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1370,16 +1538,16 @@
         <v>42</v>
       </c>
       <c r="E17" s="2">
-        <f>C17-B17</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F17" s="2">
-        <f>D17-B17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1666666220407933E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1392,16 +1560,16 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <f>C18-B18</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.787037662230432E-5</v>
       </c>
       <c r="F18" s="2">
-        <f>D18-B18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="n">
+        <f t="shared" si="1"/>
+        <v>4.7453703882638365E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1414,16 +1582,16 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <f>C19-B19</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F19" s="2">
-        <f>D19-B19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="n">
+        <f t="shared" si="1"/>
+        <v>3.9351851592073217E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1436,16 +1604,16 @@
         <v>51</v>
       </c>
       <c r="E20" s="2">
-        <f>C20-B20</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.1574076779652387E-5</v>
       </c>
       <c r="F20" s="2">
-        <f>D20-B20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="n">
+        <f t="shared" si="1"/>
+        <v>2.314814628334716E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1458,16 +1626,16 @@
         <v>54</v>
       </c>
       <c r="E21" s="2">
-        <f>C21-B21</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F21" s="2">
-        <f>D21-B21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="n">
+        <f t="shared" si="1"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1480,16 +1648,16 @@
         <v>56</v>
       </c>
       <c r="E22" s="2">
-        <f>C22-B22</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F22" s="2">
-        <f>D22-B22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="n">
+        <f t="shared" si="1"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1502,16 +1670,16 @@
         <v>59</v>
       </c>
       <c r="E23" s="2">
-        <f>C23-B23</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F23" s="2">
-        <f>D23-B23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="n">
+        <f t="shared" si="1"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1524,16 +1692,16 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
-        <f>C24-B24</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.3935185133013874E-3</v>
       </c>
       <c r="F24" s="2">
-        <f>D24-B24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="n">
+        <f t="shared" si="1"/>
+        <v>7.6388888846850023E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1546,16 +1714,16 @@
         <v>64</v>
       </c>
       <c r="E25" s="2">
-        <f>C25-B25</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1990740788169205E-4</v>
       </c>
       <c r="F25" s="2">
-        <f>D25-B25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1990740788169205E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1568,16 +1736,16 @@
         <v>66</v>
       </c>
       <c r="E26" s="2">
-        <f>C26-B26</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.546296309446916E-4</v>
       </c>
       <c r="F26" s="2">
-        <f>D26-B26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="n">
+        <f t="shared" si="1"/>
+        <v>2.546296309446916E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1590,16 +1758,16 @@
         <v>67</v>
       </c>
       <c r="E27" s="2">
-        <f>C27-B27</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f>D27-B27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="n">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1612,16 +1780,16 @@
         <v>70</v>
       </c>
       <c r="E28" s="2">
-        <f>C28-B28</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.1435185194131918E-3</v>
       </c>
       <c r="F28" s="2">
-        <f>D28-B28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="n">
+        <f t="shared" si="1"/>
+        <v>4.1550925961928442E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1634,16 +1802,16 @@
         <v>72</v>
       </c>
       <c r="E29" s="2">
-        <f>C29-B29</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.4398147767642513E-4</v>
       </c>
       <c r="F29" s="2">
-        <f>D29-B29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="n">
+        <f t="shared" si="1"/>
+        <v>5.4398147767642513E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1656,16 +1824,16 @@
         <v>74</v>
       </c>
       <c r="E30" s="2">
-        <f>C30-B30</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F30" s="2">
-        <f>D30-B30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="n">
+        <f t="shared" si="1"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1678,16 +1846,16 @@
         <v>77</v>
       </c>
       <c r="E31" s="2">
-        <f>C31-B31</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.7962963152676821E-4</v>
       </c>
       <c r="F31" s="2">
-        <f>D31-B31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="n">
+        <f t="shared" si="1"/>
+        <v>8.9120370103046298E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1700,16 +1868,16 @@
         <v>79</v>
       </c>
       <c r="E32" s="2">
-        <f>C32-B32</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.2337962946039625E-3</v>
       </c>
       <c r="F32" s="2">
-        <f>D32-B32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="n">
+        <f t="shared" si="1"/>
+        <v>2.2337962946039625E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1722,16 +1890,16 @@
         <v>81</v>
       </c>
       <c r="E33" s="2">
-        <f>C33-B33</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1990740788169205E-3</v>
       </c>
       <c r="F33" s="2">
-        <f>D33-B33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="n">
+        <f t="shared" si="1"/>
+        <v>2.1990740788169205E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1744,16 +1912,16 @@
         <v>84</v>
       </c>
       <c r="E34" s="2">
-        <f>C34-B34</f>
-        <v/>
+        <f t="shared" ref="E34:E60" si="2">C34-B34</f>
+        <v>2.1064814864075743E-3</v>
       </c>
       <c r="F34" s="2">
-        <f>D34-B34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="n">
+        <f t="shared" ref="F34:F60" si="3">D34-B34</f>
+        <v>6.3888888907968067E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1766,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="E35" s="2">
-        <f>C35-B35</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.0092592351138592E-4</v>
       </c>
       <c r="F35" s="2">
-        <f>D35-B35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="n">
+        <f t="shared" si="3"/>
+        <v>3.0092592351138592E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1788,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="E36" s="2">
-        <f>C36-B36</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.3564814657438546E-4</v>
       </c>
       <c r="F36" s="2">
-        <f>D36-B36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="n">
+        <f t="shared" si="3"/>
+        <v>3.3564814657438546E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1810,16 +1978,16 @@
         <v>91</v>
       </c>
       <c r="E37" s="2">
-        <f>C37-B37</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F37" s="2">
-        <f>D37-B37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1832,16 +2000,16 @@
         <v>93</v>
       </c>
       <c r="E38" s="2">
-        <f>C38-B38</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.125000002910383E-4</v>
       </c>
       <c r="F38" s="2">
-        <f>D38-B38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="n">
+        <f t="shared" si="3"/>
+        <v>3.125000002910383E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1854,16 +2022,16 @@
         <v>96</v>
       </c>
       <c r="E39" s="2">
-        <f>C39-B39</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.3240740817273036E-4</v>
       </c>
       <c r="F39" s="2">
-        <f>D39-B39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="n">
+        <f t="shared" si="3"/>
+        <v>2.1412037021946162E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1876,16 +2044,16 @@
         <v>99</v>
       </c>
       <c r="E40" s="2">
-        <f>C40-B40</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F40" s="2">
-        <f>D40-B40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1898,16 +2066,16 @@
         <v>102</v>
       </c>
       <c r="E41" s="2">
-        <f>C41-B41</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2.78935184906004E-3</v>
       </c>
       <c r="F41" s="2">
-        <f>D41-B41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="n">
+        <f t="shared" si="3"/>
+        <v>2.9629629643750377E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1920,16 +2088,16 @@
         <v>104</v>
       </c>
       <c r="E42" s="2">
-        <f>C42-B42</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F42" s="2">
-        <f>D42-B42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1942,16 +2110,16 @@
         <v>107</v>
       </c>
       <c r="E43" s="2">
-        <f>C43-B43</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>7.4074073927477002E-4</v>
       </c>
       <c r="F43" s="2">
-        <f>D43-B43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="n">
+        <f t="shared" si="3"/>
+        <v>1.0763888931251131E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1964,16 +2132,16 @@
         <v>109</v>
       </c>
       <c r="E44" s="2">
-        <f>C44-B44</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F44" s="2">
-        <f>D44-B44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1986,16 +2154,16 @@
         <v>111</v>
       </c>
       <c r="E45" s="2">
-        <f>C45-B45</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F45" s="2">
-        <f>D45-B45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2008,16 +2176,16 @@
         <v>113</v>
       </c>
       <c r="E46" s="2">
-        <f>C46-B46</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.6296299842651933E-5</v>
       </c>
       <c r="F46" s="2">
-        <f>D46-B46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2030,16 +2198,16 @@
         <v>116</v>
       </c>
       <c r="E47" s="2">
-        <f>C47-B47</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F47" s="2">
-        <f>D47-B47</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2052,16 +2220,16 @@
         <v>118</v>
       </c>
       <c r="E48" s="2">
-        <f>C48-B48</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F48" s="2">
-        <f>D48-B48</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2074,16 +2242,16 @@
         <v>120</v>
       </c>
       <c r="E49" s="2">
-        <f>C49-B49</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722222335403785E-4</v>
       </c>
       <c r="F49" s="2">
-        <f>D49-B49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="n">
+        <f t="shared" si="3"/>
+        <v>3.4722222335403785E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2096,16 +2264,16 @@
         <v>123</v>
       </c>
       <c r="E50" s="2">
-        <f>C50-B50</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.273148154723458E-4</v>
       </c>
       <c r="F50" s="2">
-        <f>D50-B50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="n">
+        <f t="shared" si="3"/>
+        <v>1.3888888497604057E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2118,16 +2286,16 @@
         <v>125</v>
       </c>
       <c r="E51" s="2">
-        <f>C51-B51</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F51" s="2">
-        <f>D51-B51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2140,16 +2308,16 @@
         <v>128</v>
       </c>
       <c r="E52" s="2">
-        <f>C52-B52</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F52" s="2">
-        <f>D52-B52</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="n">
+        <f t="shared" si="3"/>
+        <v>4.6296299842651933E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2162,16 +2330,16 @@
         <v>130</v>
       </c>
       <c r="E53" s="2">
-        <f>C53-B53</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F53" s="2">
-        <f>D53-B53</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>334</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2184,16 +2352,16 @@
         <v>133</v>
       </c>
       <c r="E54" s="2">
-        <f>C54-B54</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>8.101852290565148E-5</v>
       </c>
       <c r="F54" s="2">
-        <f>D54-B54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="n">
+        <f t="shared" si="3"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2206,16 +2374,16 @@
         <v>136</v>
       </c>
       <c r="E55" s="2">
-        <f>C55-B55</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>4.398148157633841E-4</v>
       </c>
       <c r="F55" s="2">
-        <f>D55-B55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="n">
+        <f t="shared" si="3"/>
+        <v>4.5138888526707888E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2228,16 +2396,16 @@
         <v>138</v>
       </c>
       <c r="E56" s="2">
-        <f>C56-B56</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.787037662230432E-5</v>
       </c>
       <c r="F56" s="2">
-        <f>D56-B56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="n">
+        <f t="shared" si="3"/>
+        <v>5.787037662230432E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2250,16 +2418,16 @@
         <v>141</v>
       </c>
       <c r="E57" s="2">
-        <f>C57-B57</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.1689814855344594E-3</v>
       </c>
       <c r="F57" s="2">
-        <f>D57-B57</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="n">
+        <f t="shared" si="3"/>
+        <v>1.527777778392192E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>186</v>
       </c>
       <c r="B58" t="s">
@@ -2272,16 +2440,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="2">
-        <f>C58-B58</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F58" s="2">
-        <f>D58-B58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="n">
+        <f t="shared" si="3"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>52</v>
       </c>
       <c r="B59" t="s">
@@ -2294,16 +2462,16 @@
         <v>146</v>
       </c>
       <c r="E59" s="2">
-        <f>C59-B59</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>9.2592592409346253E-4</v>
       </c>
       <c r="F59" s="2">
-        <f>D59-B59</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="n">
+        <f t="shared" si="3"/>
+        <v>1.5509259246755391E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>93</v>
       </c>
       <c r="B60" t="s">
@@ -2316,96 +2484,96 @@
         <v>148</v>
       </c>
       <c r="E60" s="2">
-        <f>C60-B60</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>1.3888888497604057E-4</v>
       </c>
       <c r="F60" s="2">
-        <f>D60-B60</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="n">
+        <f t="shared" si="3"/>
+        <v>1.3888888497604057E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>78866</v>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="n">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>102105</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="n">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>138164</v>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="n">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>14189</v>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="n">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>7665</v>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="n">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>83</v>
       </c>
       <c r="B66" t="s">
@@ -2418,16 +2586,16 @@
         <v>150</v>
       </c>
       <c r="E66" s="2">
-        <f>C66-B66</f>
-        <v/>
+        <f t="shared" ref="E66:E97" si="4">C66-B66</f>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F66" s="2">
-        <f>D66-B66</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="n">
+        <f t="shared" ref="F66:F97" si="5">D66-B66</f>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>4353</v>
       </c>
       <c r="B67" t="s">
@@ -2440,16 +2608,16 @@
         <v>153</v>
       </c>
       <c r="E67" s="2">
-        <f>C67-B67</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>4.537037035333924E-3</v>
       </c>
       <c r="F67" s="2">
-        <f>D67-B67</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="n">
+        <f t="shared" si="5"/>
+        <v>3.8391203699575271E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>30</v>
       </c>
       <c r="B68" t="s">
@@ -2462,16 +2630,16 @@
         <v>156</v>
       </c>
       <c r="E68" s="2">
-        <f>C68-B68</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1.4120370396994986E-3</v>
       </c>
       <c r="F68" s="2">
-        <f>D68-B68</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="n">
+        <f t="shared" si="5"/>
+        <v>1.4930555553291924E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -2484,16 +2652,16 @@
         <v>159</v>
       </c>
       <c r="E69" s="2">
-        <f>C69-B69</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F69" s="2">
-        <f>D69-B69</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="n">
+        <f t="shared" si="5"/>
+        <v>4.2824073898373172E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -2506,16 +2674,16 @@
         <v>161</v>
       </c>
       <c r="E70" s="2">
-        <f>C70-B70</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F70" s="2">
-        <f>D70-B70</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>17</v>
       </c>
       <c r="B71" t="s">
@@ -2528,16 +2696,16 @@
         <v>163</v>
       </c>
       <c r="E71" s="2">
-        <f>C71-B71</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>9.2592592409346253E-5</v>
       </c>
       <c r="F71" s="2">
-        <f>D71-B71</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="n">
+        <f t="shared" si="5"/>
+        <v>9.2592592409346253E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>7</v>
       </c>
       <c r="B72" t="s">
@@ -2550,16 +2718,16 @@
         <v>165</v>
       </c>
       <c r="E72" s="2">
-        <f>C72-B72</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F72" s="2">
-        <f>D72-B72</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>20</v>
       </c>
       <c r="B73" t="s">
@@ -2572,16 +2740,16 @@
         <v>168</v>
       </c>
       <c r="E73" s="2">
-        <f>C73-B73</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F73" s="2">
-        <f>D73-B73</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>18</v>
       </c>
       <c r="B74" t="s">
@@ -2594,16 +2762,16 @@
         <v>170</v>
       </c>
       <c r="E74" s="2">
-        <f>C74-B74</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F74" s="2">
-        <f>D74-B74</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="n">
+        <f t="shared" si="5"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>46</v>
       </c>
       <c r="B75" t="s">
@@ -2616,16 +2784,16 @@
         <v>173</v>
       </c>
       <c r="E75" s="2">
-        <f>C75-B75</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>2.6736111103673466E-3</v>
       </c>
       <c r="F75" s="2">
-        <f>D75-B75</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="n">
+        <f t="shared" si="5"/>
+        <v>2.8472222256823443E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>66</v>
       </c>
       <c r="B76" t="s">
@@ -2638,16 +2806,16 @@
         <v>175</v>
       </c>
       <c r="E76" s="2">
-        <f>C76-B76</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>8.6805555474711582E-4</v>
       </c>
       <c r="F76" s="2">
-        <f>D76-B76</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="n">
+        <f t="shared" si="5"/>
+        <v>8.6805555474711582E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>67</v>
       </c>
       <c r="B77" t="s">
@@ -2660,16 +2828,16 @@
         <v>177</v>
       </c>
       <c r="E77" s="2">
-        <f>C77-B77</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F77" s="2">
-        <f>D77-B77</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="n">
+        <f t="shared" si="5"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>20</v>
       </c>
       <c r="B78" t="s">
@@ -2682,16 +2850,16 @@
         <v>179</v>
       </c>
       <c r="E78" s="2">
-        <f>C78-B78</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F78" s="2">
-        <f>D78-B78</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="n">
+        <f t="shared" si="5"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>63</v>
       </c>
       <c r="B79" t="s">
@@ -2704,16 +2872,16 @@
         <v>181</v>
       </c>
       <c r="E79" s="2">
-        <f>C79-B79</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1.0416666918899864E-4</v>
       </c>
       <c r="F79" s="2">
-        <f>D79-B79</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="n">
+        <f t="shared" si="5"/>
+        <v>1.0416666918899864E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>67</v>
       </c>
       <c r="B80" t="s">
@@ -2726,16 +2894,16 @@
         <v>183</v>
       </c>
       <c r="E80" s="2">
-        <f>C80-B80</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F80" s="2">
-        <f>D80-B80</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="n">
+        <f t="shared" si="5"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>77</v>
       </c>
       <c r="B81" t="s">
@@ -2748,16 +2916,16 @@
         <v>186</v>
       </c>
       <c r="E81" s="2">
-        <f>C81-B81</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444446125999093E-5</v>
       </c>
       <c r="F81" s="2">
-        <f>D81-B81</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="n">
+        <f t="shared" si="5"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>61</v>
       </c>
       <c r="B82" t="s">
@@ -2770,104 +2938,104 @@
         <v>188</v>
       </c>
       <c r="E82" s="2">
-        <f>C82-B82</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1.0879629626288079E-3</v>
       </c>
       <c r="F82" s="2">
-        <f>D82-B82</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="n">
+        <f t="shared" si="5"/>
+        <v>1.0879629626288079E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>67</v>
       </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" s="2">
-        <f>C83-B83</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F83" s="2">
-        <f>D83-B83</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>71</v>
       </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" s="2">
-        <f>C84-B84</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F84" s="2">
-        <f>D84-B84</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>46</v>
       </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" s="2">
-        <f>C85-B85</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F85" s="2">
-        <f>D85-B85</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>43</v>
       </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" s="2">
-        <f>C86-B86</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F86" s="2">
-        <f>D86-B86</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>68</v>
       </c>
       <c r="B87" t="s">
@@ -2880,82 +3048,82 @@
         <v>191</v>
       </c>
       <c r="E87" s="2">
-        <f>C87-B87</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>4.6296292566694319E-5</v>
       </c>
       <c r="F87" s="2">
-        <f>D87-B87</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="n">
+        <f t="shared" si="5"/>
+        <v>5.9606481445371173E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>29</v>
       </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" s="2">
-        <f>C88-B88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F88" s="2">
-        <f>D88-B88</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>53</v>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <f>C89-B89</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F89" s="2">
-        <f>D89-B89</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>44</v>
       </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <f>C90-B90</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F90" s="2">
-        <f>D90-B90</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>44</v>
       </c>
       <c r="B91" t="s">
@@ -2968,60 +3136,60 @@
         <v>193</v>
       </c>
       <c r="E91" s="2">
-        <f>C91-B91</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>5.7870369346346706E-5</v>
       </c>
       <c r="F91" s="2">
-        <f>D91-B91</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="n">
+        <f t="shared" si="5"/>
+        <v>5.7870369346346706E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>43</v>
       </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" s="2">
-        <f>C92-B92</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F92" s="2">
-        <f>D92-B92</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>605</v>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" s="2">
-        <f>C93-B93</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F93" s="2">
-        <f>D93-B93</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>30</v>
       </c>
       <c r="B94" t="s">
@@ -3034,60 +3202,60 @@
         <v>195</v>
       </c>
       <c r="E94" s="2">
-        <f>C94-B94</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>6.9444438850041479E-5</v>
       </c>
       <c r="F94" s="2">
-        <f>D94-B94</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="n">
+        <f t="shared" si="5"/>
+        <v>6.9444438850041479E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>20</v>
       </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <f>C95-B95</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F95" s="2">
-        <f>D95-B95</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>57</v>
       </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" s="2">
-        <f>C96-B96</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F96" s="2">
-        <f>D96-B96</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="n">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>38</v>
       </c>
       <c r="B97" t="s">
@@ -3100,16 +3268,16 @@
         <v>197</v>
       </c>
       <c r="E97" s="2">
-        <f>C97-B97</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F97" s="2">
-        <f>D97-B97</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="n">
+        <f t="shared" si="5"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>42</v>
       </c>
       <c r="B98" t="s">
@@ -3122,38 +3290,38 @@
         <v>200</v>
       </c>
       <c r="E98" s="2">
-        <f>C98-B98</f>
-        <v/>
+        <f t="shared" ref="E98:E126" si="6">C98-B98</f>
+        <v>9.2592592409346253E-5</v>
       </c>
       <c r="F98" s="2">
-        <f>D98-B98</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="n">
+        <f t="shared" ref="F98:F126" si="7">D98-B98</f>
+        <v>1.0416666191304103E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>49</v>
       </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" s="2">
-        <f>C99-B99</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F99" s="2">
-        <f>D99-B99</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="n">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>63</v>
       </c>
       <c r="B100" t="s">
@@ -3166,16 +3334,16 @@
         <v>202</v>
       </c>
       <c r="E100" s="2">
-        <f>C100-B100</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>2.1990740788169205E-4</v>
       </c>
       <c r="F100" s="2">
-        <f>D100-B100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="n">
+        <f t="shared" si="7"/>
+        <v>2.1990740788169205E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>67</v>
       </c>
       <c r="B101" t="s">
@@ -3188,38 +3356,38 @@
         <v>204</v>
       </c>
       <c r="E101" s="2">
-        <f>C101-B101</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>3.4722223062999547E-5</v>
       </c>
       <c r="F101" s="2">
-        <f>D101-B101</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="n">
+        <f t="shared" si="7"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>64</v>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" s="2">
-        <f>C102-B102</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F102" s="2">
-        <f>D102-B102</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="n">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>56</v>
       </c>
       <c r="B103" t="s">
@@ -3232,30 +3400,638 @@
         <v>206</v>
       </c>
       <c r="E103" s="2">
-        <f>C103-B103</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>8.1018515629693866E-5</v>
       </c>
       <c r="F103" s="2">
-        <f>D103-B103</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="n">
+        <f t="shared" si="7"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>37</v>
       </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>72</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="6"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="7"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>26</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>210</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="6"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="7"/>
+        <v>8.1018515629693866E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>24</v>
+      </c>
+      <c r="B110" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="6"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="7"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="7"/>
+        <v>8.101852290565148E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>452</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.9675926159834489E-4</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.8518518481869251E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" t="s">
+        <v>220</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.7361110803904012E-4</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.7361110803904012E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="7"/>
+        <v>4.2824074625968933E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>42</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9444446125999093E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" t="s">
+        <v>227</v>
+      </c>
+      <c r="D117" t="s">
+        <v>227</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.1574073869269341E-4</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.1574073869269341E-4</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" t="s">
+        <v>230</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.1574073869269341E-4</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.0416666918899864E-4</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" t="s">
+        <v>233</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2615740779438056E-3</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4236111092031933E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>113</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" t="s">
+        <v>236</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3750000087311491E-4</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="7"/>
+        <v>3.3449074107920751E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.1574073869269341E-4</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.0416666191304103E-4</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>92</v>
+      </c>
+      <c r="B123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" t="s">
+        <v>242</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="6"/>
+        <v>2.314814628334716E-5</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="7"/>
+        <v>7.1759259299142286E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" t="s">
+        <v>244</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.3148153559304774E-5</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.3148153559304774E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" t="s">
+        <v>246</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.314814628334716E-5</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.314814628334716E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>949</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>248</v>
+      </c>
+      <c r="D126" t="s">
+        <v>249</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7361110803904012E-4</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="7"/>
+        <v>3.125000002910383E-4</v>
+      </c>
+      <c r="G126">
+        <v>27</v>
+      </c>
+      <c r="H126">
+        <f>AVERAGE(G126:G130)</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" ref="E127:E130" si="8">C127-B127</f>
+        <v>2.314814628334716E-5</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" ref="F127:F130" si="9">D127-B127</f>
+        <v>3.4722223062999547E-5</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>79</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="9"/>
+        <v>3.4722223062999547E-5</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>58</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="8"/>
+        <v>8.217592621804215E-4</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="9"/>
+        <v>8.217592621804215E-4</v>
+      </c>
+      <c r="G129">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>77</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" t="s">
+        <v>259</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="8"/>
+        <v>2.314814628334716E-5</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="9"/>
+        <v>4.6296292566694319E-5</v>
+      </c>
+      <c r="G130">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>